--- a/raw_data/TRX-USD_4h_process.xlsx
+++ b/raw_data/TRX-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.1053592711687088</v>
+        <v>0.1053138077259063</v>
       </c>
       <c r="C2">
-        <v>0.1054632291197776</v>
+        <v>0.1056974530220031</v>
       </c>
       <c r="D2">
-        <v>0.1051936149597168</v>
+        <v>0.1044625490903854</v>
       </c>
       <c r="E2">
-        <v>0.1054068729281425</v>
+        <v>0.1048893555998802</v>
       </c>
       <c r="F2">
-        <v>729328</v>
+        <v>5017088</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.1054181233048439</v>
+        <v>0.1048977524042129</v>
       </c>
       <c r="C3">
-        <v>0.1059557422995567</v>
+        <v>0.106826014816761</v>
       </c>
       <c r="D3">
-        <v>0.1054181233048439</v>
+        <v>0.1047680974006652</v>
       </c>
       <c r="E3">
-        <v>0.1057417243719101</v>
+        <v>0.106826014816761</v>
       </c>
       <c r="F3">
-        <v>11242640</v>
+        <v>11750304</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.1057385131716728</v>
+        <v>0.1068209335207939</v>
       </c>
       <c r="C4">
-        <v>0.1058950200676918</v>
+        <v>0.1078353002667427</v>
       </c>
       <c r="D4">
-        <v>0.1053479090332984</v>
+        <v>0.1067958921194076</v>
       </c>
       <c r="E4">
-        <v>0.1055252850055694</v>
+        <v>0.107827104628086</v>
       </c>
       <c r="F4">
-        <v>7698432</v>
+        <v>19276704</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.1055228561162948</v>
+        <v>0.1078240871429443</v>
       </c>
       <c r="C5">
-        <v>0.1063796803355217</v>
+        <v>0.1086721867322921</v>
       </c>
       <c r="D5">
-        <v>0.1054926812648773</v>
+        <v>0.107769176363945</v>
       </c>
       <c r="E5">
-        <v>0.1063319891691207</v>
+        <v>0.107769176363945</v>
       </c>
       <c r="F5">
-        <v>850032</v>
+        <v>19137504</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.1063305139541626</v>
+        <v>0.1077604666352272</v>
       </c>
       <c r="C6">
-        <v>0.1064452975988388</v>
+        <v>0.1077604666352272</v>
       </c>
       <c r="D6">
-        <v>0.1046772822737693</v>
+        <v>0.1066791117191314</v>
       </c>
       <c r="E6">
-        <v>0.1050538644194603</v>
+        <v>0.1070112586021423</v>
       </c>
       <c r="F6">
-        <v>23565232</v>
+        <v>4951200</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.1050599813461303</v>
+        <v>0.107009619474411</v>
       </c>
       <c r="C7">
-        <v>0.1054322570562362</v>
+        <v>0.1076689586043357</v>
       </c>
       <c r="D7">
-        <v>0.1049503833055496</v>
+        <v>0.1067647412419319</v>
       </c>
       <c r="E7">
-        <v>0.1054054647684097</v>
+        <v>0.1075449511408805</v>
       </c>
       <c r="F7">
-        <v>417040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.105402797460556</v>
+        <v>0.1075517535209655</v>
       </c>
       <c r="C8">
-        <v>0.1057855710387229</v>
+        <v>0.1075517535209655</v>
       </c>
       <c r="D8">
-        <v>0.1051762402057647</v>
+        <v>0.1070569306612014</v>
       </c>
       <c r="E8">
-        <v>0.1055908128619194</v>
+        <v>0.1070601046085357</v>
       </c>
       <c r="F8">
-        <v>881824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.105599895119667</v>
+        <v>0.1070599481463432</v>
       </c>
       <c r="C9">
-        <v>0.1057529002428054</v>
+        <v>0.1074878573417663</v>
       </c>
       <c r="D9">
-        <v>0.1049780920147895</v>
+        <v>0.1070365458726883</v>
       </c>
       <c r="E9">
-        <v>0.1055427119135856</v>
+        <v>0.1070810481905937</v>
       </c>
       <c r="F9">
-        <v>4194448</v>
+        <v>285536</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.1055429726839065</v>
+        <v>0.1070805415511131</v>
       </c>
       <c r="C10">
-        <v>0.1060134321451187</v>
+        <v>0.1072235181927681</v>
       </c>
       <c r="D10">
-        <v>0.1054971739649772</v>
+        <v>0.105583518743515</v>
       </c>
       <c r="E10">
-        <v>0.1055311933159828</v>
+        <v>0.1056144014000892</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>7357024</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.1055429503321647</v>
+        <v>0.1056159138679504</v>
       </c>
       <c r="C11">
-        <v>0.1066095381975174</v>
+        <v>0.1060502305626869</v>
       </c>
       <c r="D11">
-        <v>0.1055429503321647</v>
+        <v>0.1054770350456237</v>
       </c>
       <c r="E11">
-        <v>0.106540523469448</v>
+        <v>0.1060098260641098</v>
       </c>
       <c r="F11">
-        <v>9704592</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>68.88833443443029</v>
+        <v>48.08448437287419</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.106536790728569</v>
+        <v>0.1060030087828636</v>
       </c>
       <c r="C12">
-        <v>0.1068288907408714</v>
+        <v>0.1063771024346351</v>
       </c>
       <c r="D12">
-        <v>0.1058375462889671</v>
+        <v>0.1049534305930137</v>
       </c>
       <c r="E12">
-        <v>0.1058455407619476</v>
+        <v>0.1049635857343673</v>
       </c>
       <c r="F12">
-        <v>2779872</v>
+        <v>9465312</v>
       </c>
       <c r="L12">
-        <v>53.59440806724789</v>
+        <v>37.21996971610003</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,25 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.1058478876948356</v>
+        <v>0.1049573644995689</v>
       </c>
       <c r="C13">
-        <v>0.1060962527990341</v>
+        <v>0.1050104722380638</v>
       </c>
       <c r="D13">
-        <v>0.1049119606614112</v>
+        <v>0.1038385778665542</v>
       </c>
       <c r="E13">
-        <v>0.1056141257286071</v>
+        <v>0.1039015650749206</v>
       </c>
       <c r="F13">
-        <v>16461856</v>
+        <v>7312304</v>
       </c>
       <c r="L13">
-        <v>49.47942505094337</v>
+        <v>29.58606682130586</v>
+      </c>
+      <c r="N13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1266,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.1056136488914489</v>
+        <v>0.103939414024353</v>
       </c>
       <c r="C14">
-        <v>0.1057677194476127</v>
+        <v>0.1041280031204223</v>
       </c>
       <c r="D14">
-        <v>0.1050687730312347</v>
+        <v>0.1035303846001625</v>
       </c>
       <c r="E14">
-        <v>0.1056909933686256</v>
+        <v>0.1040108874440193</v>
       </c>
       <c r="F14">
-        <v>5407456</v>
+        <v>6111552</v>
       </c>
       <c r="L14">
-        <v>50.88850685992061</v>
+        <v>31.21973207080994</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1289,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>0.1056865081191062</v>
+        <v>0.1040116846561431</v>
       </c>
       <c r="C15">
-        <v>0.1062471643090248</v>
+        <v>0.1044593229889869</v>
       </c>
       <c r="D15">
-        <v>0.1056582182645797</v>
+        <v>0.1040116846561431</v>
       </c>
       <c r="E15">
-        <v>0.1062471643090248</v>
+        <v>0.1044593229889869</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>726528</v>
       </c>
       <c r="L15">
-        <v>59.97534495052229</v>
+        <v>37.87152440387626</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,522 +1312,522 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.1062482669949531</v>
+        <v>0.1044610664248466</v>
       </c>
       <c r="C16">
-        <v>0.106993980705738</v>
+        <v>0.1044836714863777</v>
       </c>
       <c r="D16">
-        <v>0.1062482669949531</v>
+        <v>0.1037957668304443</v>
       </c>
       <c r="E16">
-        <v>0.1065207049250602</v>
+        <v>0.1038050949573516</v>
       </c>
       <c r="F16">
-        <v>11431872</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>63.69235536045769</v>
+        <v>32.68367517446281</v>
       </c>
       <c r="M16">
-        <v>61.77409559421709</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>36.41344702343579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.1065173298120498</v>
+        <v>0.1038100495934486</v>
       </c>
       <c r="C17">
-        <v>0.1065221354365348</v>
+        <v>0.1038102358579635</v>
       </c>
       <c r="D17">
-        <v>0.1052974388003349</v>
+        <v>0.1020256578922271</v>
       </c>
       <c r="E17">
-        <v>0.1057745516300201</v>
+        <v>0.1028644666075706</v>
       </c>
       <c r="F17">
-        <v>5285040</v>
+        <v>25260736</v>
       </c>
       <c r="L17">
-        <v>49.56653945774445</v>
+        <v>26.7554101544146</v>
       </c>
       <c r="M17">
-        <v>50.88942929976294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31.22614036649376</v>
+      </c>
+      <c r="N17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.105775699019432</v>
+        <v>0.1028698906302452</v>
       </c>
       <c r="C18">
-        <v>0.106102168560028</v>
+        <v>0.1038628965616226</v>
       </c>
       <c r="D18">
-        <v>0.105694942176342</v>
+        <v>0.1028178483247757</v>
       </c>
       <c r="E18">
-        <v>0.1060530990362167</v>
+        <v>0.1037530377507209</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1386880</v>
       </c>
       <c r="L18">
-        <v>53.86379952723128</v>
+        <v>38.59249683112284</v>
       </c>
       <c r="M18">
-        <v>54.13817555199838</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>39.93148292345767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.1060528606176376</v>
+        <v>0.1037365943193435</v>
       </c>
       <c r="C19">
-        <v>0.1062151119112968</v>
+        <v>0.1042440682649612</v>
       </c>
       <c r="D19">
-        <v>0.1059621050953865</v>
+        <v>0.1037032157182693</v>
       </c>
       <c r="E19">
-        <v>0.106076642870903</v>
+        <v>0.1041997373104095</v>
       </c>
       <c r="F19">
-        <v>132480</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>54.23460038616921</v>
+        <v>43.73509627030876</v>
       </c>
       <c r="M19">
-        <v>54.41267890073135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>43.7838824323805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.1060738265514373</v>
+        <v>0.1042072102427482</v>
       </c>
       <c r="C20">
-        <v>0.1060985773801803</v>
+        <v>0.1043022200465202</v>
       </c>
       <c r="D20">
-        <v>0.1059251502156257</v>
+        <v>0.1038939580321312</v>
       </c>
       <c r="E20">
-        <v>0.1059747636318206</v>
+        <v>0.1040226593613624</v>
       </c>
       <c r="F20">
-        <v>951104</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>52.19254102471437</v>
+        <v>42.1605025359225</v>
       </c>
       <c r="M20">
-        <v>52.93615034446986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>42.61706845580606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.105980597436428</v>
+        <v>0.1040197238326072</v>
       </c>
       <c r="C21">
-        <v>0.1061753705143928</v>
+        <v>0.1040494963526725</v>
       </c>
       <c r="D21">
-        <v>0.1057568415999412</v>
+        <v>0.1036464348435401</v>
       </c>
       <c r="E21">
-        <v>0.105903223156929</v>
+        <v>0.1039045676589012</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.1058185625821352</v>
+        <v>0.1053759083151817</v>
       </c>
       <c r="L21">
-        <v>50.68492961907778</v>
+        <v>41.05164334117708</v>
       </c>
       <c r="M21">
-        <v>51.87170570004874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>41.81672399463092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.1059106290340423</v>
+        <v>0.103912815451622</v>
       </c>
       <c r="C22">
-        <v>0.1064388379454612</v>
+        <v>0.1041123941540718</v>
       </c>
       <c r="D22">
-        <v>0.1057448163628578</v>
+        <v>0.1035616695880889</v>
       </c>
       <c r="E22">
-        <v>0.1063651144504547</v>
+        <v>0.103644885122776</v>
       </c>
       <c r="F22">
-        <v>1812848</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.105844588861579</v>
+        <v>0.1052934786393528</v>
       </c>
       <c r="H22">
-        <v>0.1058664746582508</v>
+        <v>0.1053136847913265</v>
       </c>
       <c r="L22">
-        <v>59.23726573290607</v>
+        <v>38.54379657675243</v>
       </c>
       <c r="M22">
-        <v>57.77522170276331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>40.03617474214414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.1063663884997367</v>
+        <v>0.1036387756466865</v>
       </c>
       <c r="C23">
-        <v>0.1066537648439407</v>
+        <v>0.1041791886091232</v>
       </c>
       <c r="D23">
-        <v>0.1062399521470069</v>
+        <v>0.1036196202039718</v>
       </c>
       <c r="E23">
-        <v>0.1065650805830955</v>
+        <v>0.1041070371866226</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.1059100881089896</v>
+        <v>0.1051856203254683</v>
       </c>
       <c r="H23">
-        <v>0.10590764246881</v>
+        <v>0.1051777359098196</v>
       </c>
       <c r="L23">
-        <v>62.41210876882914</v>
+        <v>45.24137296084006</v>
       </c>
       <c r="M23">
-        <v>60.05938116053313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>44.56046442954096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.1065723448991775</v>
+        <v>0.1041136533021926</v>
       </c>
       <c r="C24">
-        <v>0.1074156686663627</v>
+        <v>0.1041724383831024</v>
       </c>
       <c r="D24">
-        <v>0.1065204739570617</v>
+        <v>0.1035650819540023</v>
       </c>
       <c r="E24">
-        <v>0.1073618084192276</v>
+        <v>0.1038058027625083</v>
       </c>
       <c r="F24">
-        <v>4742224</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.1060420626826476</v>
+        <v>0.1050601823651992</v>
       </c>
       <c r="H24">
-        <v>0.1059994686394929</v>
+        <v>0.1049766708165407</v>
       </c>
       <c r="L24">
-        <v>72.13879510267967</v>
+        <v>41.89348680093615</v>
       </c>
       <c r="M24">
-        <v>67.58360888636574</v>
-      </c>
-      <c r="O24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>42.31915190882768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.107349969446659</v>
+        <v>0.1038007065653801</v>
       </c>
       <c r="C25">
-        <v>0.1089581996202468</v>
+        <v>0.1041187271475792</v>
       </c>
       <c r="D25">
-        <v>0.107349969446659</v>
+        <v>0.1035744771361351</v>
       </c>
       <c r="E25">
-        <v>0.1086909025907516</v>
+        <v>0.1037860289216041</v>
       </c>
       <c r="F25">
-        <v>26206464</v>
+        <v>573440</v>
       </c>
       <c r="G25">
-        <v>0.106282866310657</v>
+        <v>0.1049443502339633</v>
       </c>
       <c r="H25">
-        <v>0.1061174143105745</v>
+        <v>0.1047775134444236</v>
       </c>
       <c r="L25">
-        <v>81.24633932016501</v>
+        <v>41.66579179616311</v>
       </c>
       <c r="M25">
-        <v>75.78040967823721</v>
-      </c>
-      <c r="O25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>42.16921128765222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.108700044453144</v>
+        <v>0.1037902608513832</v>
       </c>
       <c r="C26">
-        <v>0.1088764443993568</v>
+        <v>0.1040623486042022</v>
       </c>
       <c r="D26">
-        <v>0.1076589673757553</v>
+        <v>0.1036565229296684</v>
       </c>
       <c r="E26">
-        <v>0.1076589673757553</v>
+        <v>0.1039551049470901</v>
       </c>
       <c r="F26">
-        <v>14963728</v>
+        <v>1875168</v>
       </c>
       <c r="G26">
-        <v>0.1064079664074841</v>
+        <v>0.1048544188442475</v>
       </c>
       <c r="H26">
-        <v>0.1062476694583892</v>
+        <v>0.104624705761671</v>
       </c>
       <c r="L26">
-        <v>63.2006931492686</v>
+        <v>44.56408128098605</v>
       </c>
       <c r="M26">
-        <v>62.55464870866272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>43.99636157687341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.1076866164803505</v>
+        <v>0.1039568856358528</v>
       </c>
       <c r="C27">
-        <v>0.1082812324166297</v>
+        <v>0.104042612016201</v>
       </c>
       <c r="D27">
-        <v>0.1071916073560714</v>
+        <v>0.1027592048048973</v>
       </c>
       <c r="E27">
-        <v>0.1071916073560714</v>
+        <v>0.102905124425888</v>
       </c>
       <c r="F27">
-        <v>11383744</v>
+        <v>14649056</v>
       </c>
       <c r="G27">
-        <v>0.1064792064937193</v>
+        <v>0.1046772102607603</v>
       </c>
       <c r="H27">
-        <v>0.1063369765877723</v>
+        <v>0.1043927144259214</v>
       </c>
       <c r="L27">
-        <v>56.7755656195558</v>
+        <v>33.08118884162374</v>
       </c>
       <c r="M27">
-        <v>57.64751262517539</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>36.32161269536282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.1071932390332222</v>
+        <v>0.1029064282774925</v>
       </c>
       <c r="C28">
-        <v>0.1072342693805694</v>
+        <v>0.1029338613152504</v>
       </c>
       <c r="D28">
-        <v>0.1062565445899963</v>
+        <v>0.1013555154204368</v>
       </c>
       <c r="E28">
-        <v>0.1069625839591026</v>
+        <v>0.101736381649971</v>
       </c>
       <c r="F28">
-        <v>8444592</v>
+        <v>27351872</v>
       </c>
       <c r="G28">
-        <v>0.1065231498996633</v>
+        <v>0.104409862205234</v>
       </c>
       <c r="H28">
-        <v>0.1064055651426315</v>
+        <v>0.1041265282779932</v>
       </c>
       <c r="L28">
-        <v>53.76242383757189</v>
+        <v>25.01094495986317</v>
       </c>
       <c r="M28">
-        <v>55.35587872064698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>30.04001716729697</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.1069575920701026</v>
+        <v>0.1017380878329277</v>
       </c>
       <c r="C29">
-        <v>0.1073764413595199</v>
+        <v>0.1035642698407173</v>
       </c>
       <c r="D29">
-        <v>0.1068900600075721</v>
+        <v>0.1017298400402069</v>
       </c>
       <c r="E29">
-        <v>0.1069824993610382</v>
+        <v>0.1034205481410026</v>
       </c>
       <c r="F29">
-        <v>83776</v>
+        <v>22235424</v>
       </c>
       <c r="G29">
-        <v>0.1065649089416064</v>
+        <v>0.1043199245630311</v>
       </c>
       <c r="H29">
-        <v>0.1064775545150041</v>
+        <v>0.1039435032755136</v>
       </c>
       <c r="L29">
-        <v>54.00124123282147</v>
+        <v>46.26288221738409</v>
       </c>
       <c r="M29">
-        <v>55.52145918803915</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>44.84318846029228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.1069652214646339</v>
+        <v>0.1034103855490684</v>
       </c>
       <c r="C30">
-        <v>0.1072587147355079</v>
+        <v>0.1040224805474281</v>
       </c>
       <c r="D30">
-        <v>0.1068519800901413</v>
+        <v>0.102964848279953</v>
       </c>
       <c r="E30">
-        <v>0.1072515770792961</v>
+        <v>0.1035454496741294</v>
       </c>
       <c r="F30">
-        <v>15156928</v>
+        <v>17029616</v>
       </c>
       <c r="G30">
-        <v>0.10662733331776</v>
+        <v>0.1042495177549492</v>
       </c>
       <c r="H30">
-        <v>0.1065635737031698</v>
+        <v>0.1038400556892156</v>
       </c>
       <c r="L30">
-        <v>57.34962290279417</v>
+        <v>47.50413716305368</v>
       </c>
       <c r="M30">
-        <v>57.79887433166138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>45.75981756404696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.107250303030014</v>
+        <v>0.1035504266619682</v>
       </c>
       <c r="C31">
-        <v>0.1076214760541915</v>
+        <v>0.1038624048233032</v>
       </c>
       <c r="D31">
-        <v>0.1069176271557807</v>
+        <v>0.1030978858470916</v>
       </c>
       <c r="E31">
-        <v>0.1076055914163589</v>
+        <v>0.1033408343791961</v>
       </c>
       <c r="F31">
-        <v>372384</v>
+        <v>20912320</v>
       </c>
       <c r="G31">
-        <v>0.1067162658721781</v>
+        <v>0.1041669101753352</v>
       </c>
       <c r="H31">
-        <v>0.1066168271005153</v>
+        <v>0.1037066061049699</v>
       </c>
       <c r="I31">
-        <v>0.1063002328077952</v>
+        <v>0.1047255121171474</v>
       </c>
       <c r="L31">
-        <v>61.49790981910759</v>
+        <v>45.56443324671822</v>
       </c>
       <c r="M31">
-        <v>60.65335543908735</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>44.45639935857885</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>0.1076060831546783</v>
+        <v>0.1033404916524887</v>
       </c>
       <c r="C32">
-        <v>0.1078451126813888</v>
+        <v>0.104289561510086</v>
       </c>
       <c r="D32">
-        <v>0.1074042469263076</v>
+        <v>0.1031202524900436</v>
       </c>
       <c r="E32">
-        <v>0.1078037843108177</v>
+        <v>0.1042828261852264</v>
       </c>
       <c r="F32">
-        <v>1978336</v>
+        <v>30736352</v>
       </c>
       <c r="G32">
-        <v>0.1068151311847817</v>
+        <v>0.1041774479944163</v>
       </c>
       <c r="H32">
-        <v>0.1067147392779588</v>
+        <v>0.1036725681275129</v>
       </c>
       <c r="I32">
-        <v>0.1063801298538844</v>
+        <v>0.1047052944699923</v>
       </c>
       <c r="L32">
-        <v>63.72034359496048</v>
+        <v>55.06682026952067</v>
       </c>
       <c r="M32">
-        <v>62.19506834418604</v>
+        <v>51.32958760796083</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1832,34 +1835,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.1078171804547309</v>
+        <v>0.104288674890995</v>
       </c>
       <c r="C33">
-        <v>0.108364813029766</v>
+        <v>0.1043203026056289</v>
       </c>
       <c r="D33">
-        <v>0.1077064275741577</v>
+        <v>0.1038780957460403</v>
       </c>
       <c r="E33">
-        <v>0.108364813029766</v>
+        <v>0.1042810529470443</v>
       </c>
       <c r="F33">
-        <v>14513936</v>
+        <v>7640960</v>
       </c>
       <c r="G33">
-        <v>0.1069560113525075</v>
+        <v>0.1041868666264733</v>
       </c>
       <c r="H33">
-        <v>0.1068522736430168</v>
+        <v>0.1036915425211191</v>
       </c>
       <c r="I33">
-        <v>0.1064675661424795</v>
+        <v>0.1046204624076684</v>
       </c>
       <c r="L33">
-        <v>69.35375344190693</v>
+        <v>55.0464708550202</v>
       </c>
       <c r="M33">
-        <v>66.22894097995596</v>
+        <v>51.31671437335761</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1867,37 +1870,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.1083606779575347</v>
+        <v>0.1042934954166412</v>
       </c>
       <c r="C34">
-        <v>0.1087191253900528</v>
+        <v>0.1042934954166412</v>
       </c>
       <c r="D34">
-        <v>0.1083043813705444</v>
+        <v>0.1037740111351013</v>
       </c>
       <c r="E34">
-        <v>0.1087191253900528</v>
+        <v>0.1040482819080352</v>
       </c>
       <c r="F34">
-        <v>1590048</v>
+        <v>5298528</v>
       </c>
       <c r="G34">
-        <v>0.1071162944468298</v>
+        <v>0.1041742680157062</v>
       </c>
       <c r="H34">
-        <v>0.1070036802440881</v>
+        <v>0.1036934122443199</v>
       </c>
       <c r="I34">
-        <v>0.106574027488629</v>
+        <v>0.1044945016503333</v>
       </c>
       <c r="L34">
-        <v>72.39877437614288</v>
+        <v>52.19788559297554</v>
       </c>
       <c r="M34">
-        <v>68.51390035614909</v>
-      </c>
-      <c r="O34" t="s">
-        <v>195</v>
+        <v>49.55962256722754</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1905,37 +1905,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.108708269894123</v>
+        <v>0.1040546149015426</v>
       </c>
       <c r="C35">
-        <v>0.11055189371109</v>
+        <v>0.1045213639736175</v>
       </c>
       <c r="D35">
-        <v>0.1086570098996162</v>
+        <v>0.1039974242448806</v>
       </c>
       <c r="E35">
-        <v>0.110170304775238</v>
+        <v>0.1042354553937912</v>
       </c>
       <c r="F35">
-        <v>42545712</v>
+        <v>193552</v>
       </c>
       <c r="G35">
-        <v>0.1073939317494124</v>
+        <v>0.1041798305046231</v>
       </c>
       <c r="H35">
-        <v>0.1071998372673988</v>
+        <v>0.1036822188645601</v>
       </c>
       <c r="I35">
-        <v>0.1067019713421662</v>
+        <v>0.1043767109513282</v>
       </c>
       <c r="L35">
-        <v>81.06685677948461</v>
+        <v>54.33557987270491</v>
       </c>
       <c r="M35">
-        <v>75.75077624989309</v>
-      </c>
-      <c r="O35" t="s">
-        <v>195</v>
+        <v>51.01214907057329</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1943,34 +1940,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.1101672127842903</v>
+        <v>0.1042326092720031</v>
       </c>
       <c r="C36">
-        <v>0.1103531569242477</v>
+        <v>0.1042326092720031</v>
       </c>
       <c r="D36">
-        <v>0.1086907386779785</v>
+        <v>0.1033119261264801</v>
       </c>
       <c r="E36">
-        <v>0.1088433787226677</v>
+        <v>0.1033358499407768</v>
       </c>
       <c r="F36">
-        <v>24747136</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.1075256996560719</v>
+        <v>0.1041031049988188</v>
       </c>
       <c r="H36">
-        <v>0.1073159709572792</v>
+        <v>0.1036587566137313</v>
       </c>
       <c r="I36">
-        <v>0.1068282884856065</v>
+        <v>0.1042541973292827</v>
       </c>
       <c r="L36">
-        <v>61.27260287117738</v>
+        <v>43.75545161991309</v>
       </c>
       <c r="M36">
-        <v>61.77029191679699</v>
+        <v>44.39498257719965</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1978,34 +1975,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.1088499501347541</v>
+        <v>0.1033526882529258</v>
       </c>
       <c r="C37">
-        <v>0.1096357256174087</v>
+        <v>0.1034651547670364</v>
       </c>
       <c r="D37">
-        <v>0.1086738482117652</v>
+        <v>0.101881243288517</v>
       </c>
       <c r="E37">
-        <v>0.1091435253620147</v>
+        <v>0.1022692993283271</v>
       </c>
       <c r="F37">
-        <v>13143712</v>
+        <v>9826688</v>
       </c>
       <c r="G37">
-        <v>0.1076727747202486</v>
+        <v>0.1039363953924105</v>
       </c>
       <c r="H37">
-        <v>0.1074844196438789</v>
+        <v>0.1036289982497692</v>
       </c>
       <c r="I37">
-        <v>0.1069528905053933</v>
+        <v>0.1040783422688643</v>
       </c>
       <c r="L37">
-        <v>63.53815337939153</v>
+        <v>34.73454556610116</v>
       </c>
       <c r="M37">
-        <v>63.41507541847232</v>
+        <v>38.08701500074096</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2013,34 +2010,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.109133780002594</v>
+        <v>0.102260947227478</v>
       </c>
       <c r="C38">
-        <v>0.109372854232788</v>
+        <v>0.1024254411458969</v>
       </c>
       <c r="D38">
-        <v>0.1083614602684974</v>
+        <v>0.1016905531287193</v>
       </c>
       <c r="E38">
-        <v>0.1083614602684974</v>
+        <v>0.1024143993854522</v>
       </c>
       <c r="F38">
-        <v>1358144</v>
+        <v>1681376</v>
       </c>
       <c r="G38">
-        <v>0.1077353824973621</v>
+        <v>0.1037980321190506</v>
       </c>
       <c r="H38">
-        <v>0.1075998377054929</v>
+        <v>0.1035620663315057</v>
       </c>
       <c r="I38">
-        <v>0.1070452454189459</v>
+        <v>0.1039234854280948</v>
       </c>
       <c r="L38">
-        <v>54.23743449532731</v>
+        <v>36.73094738594477</v>
       </c>
       <c r="M38">
-        <v>56.5839098317859</v>
+        <v>39.34959830292755</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2048,34 +2045,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.1083716005086898</v>
+        <v>0.1024026498198509</v>
       </c>
       <c r="C39">
-        <v>0.1096421107649803</v>
+        <v>0.1027629673480987</v>
       </c>
       <c r="D39">
-        <v>0.1083532273769378</v>
+        <v>0.1019229292869567</v>
       </c>
       <c r="E39">
-        <v>0.1096151024103164</v>
+        <v>0.1027629673480987</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>38204368</v>
       </c>
       <c r="G39">
-        <v>0.1079062661258125</v>
+        <v>0.1037039353216914</v>
       </c>
       <c r="H39">
-        <v>0.1077767606824636</v>
+        <v>0.1034902278333902</v>
       </c>
       <c r="I39">
-        <v>0.1071809917688369</v>
+        <v>0.1037795494000116</v>
       </c>
       <c r="L39">
-        <v>63.79476322933188</v>
+        <v>41.56190315941299</v>
       </c>
       <c r="M39">
-        <v>63.39158188680075</v>
+        <v>42.38900118588031</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2083,34 +2080,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.1096213907003402</v>
+        <v>0.1027649492025375</v>
       </c>
       <c r="C40">
-        <v>0.1098004952073097</v>
+        <v>0.1036214455962181</v>
       </c>
       <c r="D40">
-        <v>0.1091017425060272</v>
+        <v>0.1027649492025375</v>
       </c>
       <c r="E40">
-        <v>0.1091115251183509</v>
+        <v>0.1035720631480217</v>
       </c>
       <c r="F40">
-        <v>674368</v>
+        <v>2779824</v>
       </c>
       <c r="G40">
-        <v>0.1080158351251341</v>
+        <v>0.1036919469422669</v>
       </c>
       <c r="H40">
-        <v>0.1079335987567901</v>
+        <v>0.1034676980227232</v>
       </c>
       <c r="I40">
-        <v>0.1073003361622492</v>
+        <v>0.1037114714582761</v>
       </c>
       <c r="L40">
-        <v>58.29316496880401</v>
+        <v>51.27688097778366</v>
       </c>
       <c r="M40">
-        <v>59.364834236017</v>
+        <v>48.80257201551833</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2118,34 +2115,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.1091032922267913</v>
+        <v>0.1035749167203903</v>
       </c>
       <c r="C41">
-        <v>0.1099423468112945</v>
+        <v>0.1039823293685913</v>
       </c>
       <c r="D41">
-        <v>0.1078987196087837</v>
+        <v>0.1035392135381698</v>
       </c>
       <c r="E41">
-        <v>0.1078987196087837</v>
+        <v>0.1039823293685913</v>
       </c>
       <c r="F41">
-        <v>14531808</v>
+        <v>2602992</v>
       </c>
       <c r="G41">
-        <v>0.1080051882600113</v>
+        <v>0.10371834534466</v>
       </c>
       <c r="H41">
-        <v>0.1080333735793828</v>
+        <v>0.1034715861082077</v>
       </c>
       <c r="I41">
-        <v>0.1073456093668937</v>
+        <v>0.1036438882350921</v>
       </c>
       <c r="L41">
-        <v>47.2522743666838</v>
+        <v>55.49725450779724</v>
       </c>
       <c r="M41">
-        <v>50.96775858025188</v>
+        <v>51.73659139820769</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2153,34 +2150,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.1078830435872078</v>
+        <v>0.1039881780743599</v>
       </c>
       <c r="C42">
-        <v>0.1078830435872078</v>
+        <v>0.1045842468738555</v>
       </c>
       <c r="D42">
-        <v>0.1038353890180587</v>
+        <v>0.1039861217141151</v>
       </c>
       <c r="E42">
-        <v>0.1053003296256065</v>
+        <v>0.1045111119747161</v>
       </c>
       <c r="F42">
-        <v>124594848</v>
+        <v>3532944</v>
       </c>
       <c r="G42">
-        <v>0.10775929202052</v>
+        <v>0.1037904150383015</v>
       </c>
       <c r="H42">
-        <v>0.1079801343381404</v>
+        <v>0.1035148974508047</v>
       </c>
       <c r="I42">
-        <v>0.107327435662349</v>
+        <v>0.1036288057764371</v>
       </c>
       <c r="L42">
-        <v>32.44207769385887</v>
+        <v>60.46298970928947</v>
       </c>
       <c r="M42">
-        <v>38.4267967633165</v>
+        <v>55.29280880878837</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2188,34 +2185,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.1053138077259063</v>
+        <v>0.1045285239815712</v>
       </c>
       <c r="C43">
-        <v>0.1056974530220031</v>
+        <v>0.1045769527554512</v>
       </c>
       <c r="D43">
-        <v>0.1044625490903854</v>
+        <v>0.1031263023614883</v>
       </c>
       <c r="E43">
-        <v>0.1048893555998802</v>
+        <v>0.1041832566261291</v>
       </c>
       <c r="F43">
-        <v>16169280</v>
+        <v>6908384</v>
       </c>
       <c r="G43">
-        <v>0.1074983887095527</v>
+        <v>0.1038261279099222</v>
       </c>
       <c r="H43">
-        <v>0.1078963480889797</v>
+        <v>0.10351870842278</v>
       </c>
       <c r="I43">
-        <v>0.1073032766580581</v>
+        <v>0.1036381954948107</v>
       </c>
       <c r="L43">
-        <v>30.72835710756572</v>
+        <v>56.09689445650559</v>
       </c>
       <c r="M43">
-        <v>36.88106719523179</v>
+        <v>52.69999868906656</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2223,34 +2220,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.1048977524042129</v>
+        <v>0.1043036058545112</v>
       </c>
       <c r="C44">
-        <v>0.106826014816761</v>
+        <v>0.1045531257987022</v>
       </c>
       <c r="D44">
-        <v>0.1047680974006652</v>
+        <v>0.1037809327244758</v>
       </c>
       <c r="E44">
-        <v>0.106826014816761</v>
+        <v>0.1045032814145088</v>
       </c>
       <c r="F44">
-        <v>11750304</v>
+        <v>20406112</v>
       </c>
       <c r="G44">
-        <v>0.107437263810208</v>
+        <v>0.10388768731943</v>
       </c>
       <c r="H44">
-        <v>0.1078695584088563</v>
+        <v>0.10355358235538</v>
       </c>
       <c r="I44">
-        <v>0.1073411107063293</v>
+        <v>0.1036546086271603</v>
       </c>
       <c r="L44">
-        <v>45.88329210123172</v>
+        <v>59.32250312234866</v>
       </c>
       <c r="M44">
-        <v>47.58162465264164</v>
+        <v>54.92204104986431</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2258,34 +2255,34 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.1068209335207939</v>
+        <v>0.1045007109642028</v>
       </c>
       <c r="C45">
-        <v>0.1078353002667427</v>
+        <v>0.1057860180735588</v>
       </c>
       <c r="D45">
-        <v>0.1067958921194076</v>
+        <v>0.1038227453827858</v>
       </c>
       <c r="E45">
-        <v>0.107827104628086</v>
+        <v>0.105300098657608</v>
       </c>
       <c r="F45">
-        <v>19276704</v>
+        <v>36918944</v>
       </c>
       <c r="G45">
-        <v>0.1074727038845606</v>
+        <v>0.1040160883501735</v>
       </c>
       <c r="H45">
-        <v>0.1078263685107231</v>
+        <v>0.1036292858421802</v>
       </c>
       <c r="I45">
-        <v>0.1073937753836313</v>
+        <v>0.103682634482781</v>
       </c>
       <c r="L45">
-        <v>51.99119148832133</v>
+        <v>66.26512042939559</v>
       </c>
       <c r="M45">
-        <v>52.10194441365979</v>
+        <v>59.96505537009029</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2293,34 +2290,34 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.1078240871429443</v>
+        <v>0.1052942276000976</v>
       </c>
       <c r="C46">
-        <v>0.1086721867322921</v>
+        <v>0.105779118835926</v>
       </c>
       <c r="D46">
-        <v>0.107769176363945</v>
+        <v>0.1052636876702308</v>
       </c>
       <c r="E46">
-        <v>0.107769176363945</v>
+        <v>0.1056469678878784</v>
       </c>
       <c r="F46">
-        <v>19137504</v>
+        <v>7073632</v>
       </c>
       <c r="G46">
-        <v>0.107499655928141</v>
+        <v>0.1041643501263285</v>
       </c>
       <c r="H46">
-        <v>0.1078318789601325</v>
+        <v>0.1037138789892196</v>
       </c>
       <c r="I46">
-        <v>0.1074353910982608</v>
+        <v>0.1037440302471319</v>
       </c>
       <c r="L46">
-        <v>51.61198040253172</v>
+        <v>68.86734481954335</v>
       </c>
       <c r="M46">
-        <v>51.82345153635968</v>
+        <v>61.96011940224039</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2328,34 +2325,34 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.1077604666352272</v>
+        <v>0.1056602001190185</v>
       </c>
       <c r="C47">
-        <v>0.1077604666352272</v>
+        <v>0.1057287752628326</v>
       </c>
       <c r="D47">
-        <v>0.1066791117191314</v>
+        <v>0.1048106551170349</v>
       </c>
       <c r="E47">
-        <v>0.1070112586021423</v>
+        <v>0.1053476855158805</v>
       </c>
       <c r="F47">
-        <v>4951200</v>
+        <v>8928000</v>
       </c>
       <c r="G47">
-        <v>0.107455256171232</v>
+        <v>0.1042719260708332</v>
       </c>
       <c r="H47">
-        <v>0.1078228615224361</v>
+        <v>0.1038360070437192</v>
       </c>
       <c r="I47">
-        <v>0.1074766146639982</v>
+        <v>0.1038268042107423</v>
       </c>
       <c r="L47">
-        <v>46.60820586617408</v>
+        <v>64.07013102082806</v>
       </c>
       <c r="M47">
-        <v>48.19377938201949</v>
+        <v>59.21809036654813</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2363,3433 +2360,3463 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.107009619474411</v>
+        <v>0.1053428426384925</v>
       </c>
       <c r="C48">
-        <v>0.1076689586043357</v>
+        <v>0.1066719889640808</v>
       </c>
       <c r="D48">
-        <v>0.1067647412419319</v>
+        <v>0.1053428426384925</v>
       </c>
       <c r="E48">
-        <v>0.1075449511408805</v>
+        <v>0.1066719889640808</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>14309888</v>
       </c>
       <c r="G48">
-        <v>0.1074634102593819</v>
+        <v>0.104490113606583</v>
       </c>
       <c r="H48">
-        <v>0.107851979881525</v>
+        <v>0.1040827874094247</v>
       </c>
       <c r="I48">
-        <v>0.1075263430674871</v>
+        <v>0.1039241025845209</v>
       </c>
       <c r="L48">
-        <v>50.41630027451448</v>
+        <v>73.32134238795899</v>
       </c>
       <c r="M48">
-        <v>50.80655452847568</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>66.32064556528475</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0.1075517535209655</v>
+        <v>0.1066799312829971</v>
       </c>
       <c r="C49">
-        <v>0.1075517535209655</v>
+        <v>0.1075449138879776</v>
       </c>
       <c r="D49">
-        <v>0.1070569306612014</v>
+        <v>0.1056849583983421</v>
       </c>
       <c r="E49">
-        <v>0.1070601046085357</v>
+        <v>0.1057356148958206</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>44415040</v>
       </c>
       <c r="G49">
-        <v>0.1074267461093049</v>
+        <v>0.1046033409965137</v>
       </c>
       <c r="H49">
-        <v>0.1078558601438999</v>
+        <v>0.1041985407471656</v>
       </c>
       <c r="I49">
-        <v>0.1075591251254081</v>
+        <v>0.1039752985040346</v>
       </c>
       <c r="L49">
-        <v>46.99089035672174</v>
+        <v>60.85703501887145</v>
       </c>
       <c r="M49">
-        <v>48.41753003571048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>58.55531524333846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.1070599481463432</v>
+        <v>0.1057441160082817</v>
       </c>
       <c r="C50">
-        <v>0.1074878573417663</v>
+        <v>0.106157086789608</v>
       </c>
       <c r="D50">
-        <v>0.1070365458726883</v>
+        <v>0.1049798503518104</v>
       </c>
       <c r="E50">
-        <v>0.1070810481905937</v>
+        <v>0.106157086789608</v>
       </c>
       <c r="F50">
-        <v>285536</v>
+        <v>11509120</v>
       </c>
       <c r="G50">
-        <v>0.1073953190257857</v>
+        <v>0.1047445906140677</v>
       </c>
       <c r="H50">
-        <v>0.1078473336994648</v>
+        <v>0.1043291226029396</v>
       </c>
       <c r="I50">
-        <v>0.1075960012773673</v>
+        <v>0.1040464460849762</v>
       </c>
       <c r="L50">
-        <v>47.16533583664847</v>
+        <v>63.95945675359255</v>
       </c>
       <c r="M50">
-        <v>48.53011629696346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>60.78123268651784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.1070805415511131</v>
+        <v>0.106152057647705</v>
       </c>
       <c r="C51">
-        <v>0.1072235181927681</v>
+        <v>0.1063111871480941</v>
       </c>
       <c r="D51">
-        <v>0.105583518743515</v>
+        <v>0.1057518869638443</v>
       </c>
       <c r="E51">
-        <v>0.1056144014000892</v>
+        <v>0.1062262579798698</v>
       </c>
       <c r="F51">
-        <v>7357024</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.1072334174234497</v>
+        <v>0.1048792876473224</v>
       </c>
       <c r="H51">
-        <v>0.1077477741986513</v>
+        <v>0.1044733937829732</v>
       </c>
       <c r="I51">
-        <v>0.1075863738854726</v>
+        <v>0.1041238357623418</v>
       </c>
       <c r="L51">
-        <v>37.4547894507023</v>
+        <v>64.47925915651983</v>
       </c>
       <c r="M51">
-        <v>41.67088775845721</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>61.15001693201323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.1056159138679504</v>
+        <v>0.1062175408005714</v>
       </c>
       <c r="C52">
-        <v>0.1060502305626869</v>
+        <v>0.1067134439945221</v>
       </c>
       <c r="D52">
-        <v>0.1054770350456237</v>
+        <v>0.1060013100504875</v>
       </c>
       <c r="E52">
-        <v>0.1060098260641098</v>
+        <v>0.1066301986575126</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>6720</v>
       </c>
       <c r="G52">
-        <v>0.1071221818453279</v>
+        <v>0.1050384613755215</v>
       </c>
       <c r="H52">
-        <v>0.1076580762863159</v>
+        <v>0.1045907624065876</v>
       </c>
       <c r="I52">
-        <v>0.1075745309392611</v>
+        <v>0.1042233462134997</v>
       </c>
       <c r="L52">
-        <v>41.13098213869084</v>
+        <v>67.55364087069066</v>
       </c>
       <c r="M52">
-        <v>43.97024049866721</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>63.31919074674108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.1060030087828636</v>
+        <v>0.1066329479217529</v>
       </c>
       <c r="C53">
-        <v>0.1063771024346351</v>
+        <v>0.1072375625371933</v>
       </c>
       <c r="D53">
-        <v>0.1049534305930137</v>
+        <v>0.1066329479217529</v>
       </c>
       <c r="E53">
-        <v>0.1049635857343673</v>
+        <v>0.1070898696780204</v>
       </c>
       <c r="F53">
-        <v>9465312</v>
+        <v>239744</v>
       </c>
       <c r="G53">
-        <v>0.1069259458352406</v>
+        <v>0.1052249530393851</v>
       </c>
       <c r="H53">
-        <v>0.1074880149215459</v>
+        <v>0.1047312032431364</v>
       </c>
       <c r="I53">
-        <v>0.1075211477776368</v>
+        <v>0.1043227739632129</v>
       </c>
       <c r="L53">
-        <v>35.0064549643275</v>
+        <v>70.79021924611914</v>
       </c>
       <c r="M53">
-        <v>39.53006488360926</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>65.66834977243738</v>
+      </c>
+      <c r="O53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.1049573644995689</v>
+        <v>0.1070869341492652</v>
       </c>
       <c r="C54">
-        <v>0.1050104722380638</v>
+        <v>0.1075876653194427</v>
       </c>
       <c r="D54">
-        <v>0.1038385778665542</v>
+        <v>0.1067507416009903</v>
       </c>
       <c r="E54">
-        <v>0.1039015650749206</v>
+        <v>0.1074665710330009</v>
       </c>
       <c r="F54">
-        <v>7312304</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.1066510021297569</v>
+        <v>0.1054287364933501</v>
       </c>
       <c r="H54">
-        <v>0.1072471369057893</v>
+        <v>0.1049021176993847</v>
       </c>
       <c r="I54">
-        <v>0.1074058063328266</v>
+        <v>0.1044447995722293</v>
       </c>
       <c r="L54">
-        <v>29.91895982434462</v>
+        <v>73.25026000251579</v>
       </c>
       <c r="M54">
-        <v>35.60018111761956</v>
-      </c>
-      <c r="N54" t="s">
+        <v>67.50499333055936</v>
+      </c>
+      <c r="O54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.103939414024353</v>
+        <v>0.1074577420949935</v>
       </c>
       <c r="C55">
-        <v>0.1041280031204223</v>
+        <v>0.108006827533245</v>
       </c>
       <c r="D55">
-        <v>0.1035303846001625</v>
+        <v>0.1065864264965057</v>
       </c>
       <c r="E55">
-        <v>0.1040108874440193</v>
+        <v>0.1065976470708847</v>
       </c>
       <c r="F55">
-        <v>6111552</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.1064109917037808</v>
+        <v>0.1055350010913078</v>
       </c>
       <c r="H55">
-        <v>0.1069391660392284</v>
+        <v>0.1050202272832393</v>
       </c>
       <c r="I55">
-        <v>0.1072498058279355</v>
+        <v>0.1045385201772054</v>
       </c>
       <c r="L55">
-        <v>31.07890282583904</v>
+        <v>60.11263442629074</v>
       </c>
       <c r="M55">
-        <v>36.30218172615612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>59.58642279976534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0.1040116846561431</v>
+        <v>0.1066008135676384</v>
       </c>
       <c r="C56">
-        <v>0.1044593229889869</v>
+        <v>0.1070284023880958</v>
       </c>
       <c r="D56">
-        <v>0.1040116846561431</v>
+        <v>0.1062039136886596</v>
       </c>
       <c r="E56">
-        <v>0.1044593229889869</v>
+        <v>0.1069408804178237</v>
       </c>
       <c r="F56">
-        <v>726528</v>
+        <v>19277472</v>
       </c>
       <c r="G56">
-        <v>0.1062335672751631</v>
+        <v>0.1056628083028093</v>
       </c>
       <c r="H56">
-        <v>0.1067199632525444</v>
+        <v>0.1052004788070917</v>
       </c>
       <c r="I56">
-        <v>0.1071431510150432</v>
+        <v>0.1046380460262298</v>
       </c>
       <c r="L56">
-        <v>35.96954841276427</v>
+        <v>63.05705250892579</v>
       </c>
       <c r="M56">
-        <v>39.22854446945641</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>61.50722437673323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0.1044610664248466</v>
+        <v>0.1069470718502998</v>
       </c>
       <c r="C57">
-        <v>0.1044836714863777</v>
+        <v>0.107626274228096</v>
       </c>
       <c r="D57">
-        <v>0.1037957668304443</v>
+        <v>0.1058277338743209</v>
       </c>
       <c r="E57">
-        <v>0.1038050949573516</v>
+        <v>0.1068794205784797</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>43650176</v>
       </c>
       <c r="G57">
-        <v>0.106012797064453</v>
+        <v>0.1057734094187793</v>
       </c>
       <c r="H57">
-        <v>0.1064530417323112</v>
+        <v>0.1054309848695993</v>
       </c>
       <c r="I57">
-        <v>0.1070302672684192</v>
+        <v>0.1047705225646495</v>
       </c>
       <c r="L57">
-        <v>32.21735255043738</v>
+        <v>62.13311684619507</v>
       </c>
       <c r="M57">
-        <v>36.58764505035943</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>60.94861823932281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.1038100495934486</v>
+        <v>0.1069097146391868</v>
       </c>
       <c r="C58">
-        <v>0.1038102358579635</v>
+        <v>0.1070621833205223</v>
       </c>
       <c r="D58">
-        <v>0.1020256578922271</v>
+        <v>0.1062563881278038</v>
       </c>
       <c r="E58">
-        <v>0.1028644666075706</v>
+        <v>0.1067397445440292</v>
       </c>
       <c r="F58">
-        <v>25260736</v>
+        <v>20728256</v>
       </c>
       <c r="G58">
-        <v>0.1057265852047364</v>
+        <v>0.1058612580665293</v>
       </c>
       <c r="H58">
-        <v>0.1061781920492649</v>
+        <v>0.1056472521275282</v>
       </c>
       <c r="I58">
-        <v>0.1068936633567015</v>
+        <v>0.1049373013277848</v>
       </c>
       <c r="L58">
-        <v>27.56612420224223</v>
+        <v>59.88953457105978</v>
       </c>
       <c r="M58">
-        <v>33.13386004976854</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>59.62332815826693</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0.1028698906302452</v>
+        <v>0.1067406684160232</v>
       </c>
       <c r="C59">
-        <v>0.1038628965616226</v>
+        <v>0.1094171702861785</v>
       </c>
       <c r="D59">
-        <v>0.1028178483247757</v>
+        <v>0.1066321432590484</v>
       </c>
       <c r="E59">
-        <v>0.1037530377507209</v>
+        <v>0.1094171702861785</v>
       </c>
       <c r="F59">
-        <v>1386880</v>
+        <v>29086688</v>
       </c>
       <c r="G59">
-        <v>0.1055471717998259</v>
+        <v>0.1061845228137701</v>
       </c>
       <c r="H59">
-        <v>0.1058850888162851</v>
+        <v>0.1059799622744321</v>
       </c>
       <c r="I59">
-        <v>0.1067860146363576</v>
+        <v>0.105137188732624</v>
       </c>
       <c r="L59">
-        <v>37.20121317634916</v>
+        <v>77.44948726858877</v>
       </c>
       <c r="M59">
-        <v>38.99257491213745</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>72.13243551185114</v>
+      </c>
+      <c r="O59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.1037365943193435</v>
+        <v>0.1094196885824203</v>
       </c>
       <c r="C60">
-        <v>0.1042440682649612</v>
+        <v>0.1135720536112785</v>
       </c>
       <c r="D60">
-        <v>0.1037032157182693</v>
+        <v>0.1090862452983856</v>
       </c>
       <c r="E60">
-        <v>0.1041997373104095</v>
+        <v>0.1133814826607704</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>148413472</v>
       </c>
       <c r="G60">
-        <v>0.1054246777553335</v>
+        <v>0.1068387918907701</v>
       </c>
       <c r="H60">
-        <v>0.105639499425888</v>
+        <v>0.1064704332500696</v>
       </c>
       <c r="I60">
-        <v>0.1066842866440613</v>
+        <v>0.1054650564988454</v>
       </c>
       <c r="L60">
-        <v>41.59500840392634</v>
+        <v>86.95926879252218</v>
       </c>
       <c r="M60">
-        <v>41.75543879540307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>81.34706809468437</v>
+      </c>
+      <c r="O60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.1042072102427482</v>
+        <v>0.113378420472145</v>
       </c>
       <c r="C61">
-        <v>0.1043022200465202</v>
+        <v>0.1159606575965881</v>
       </c>
       <c r="D61">
-        <v>0.1038939580321312</v>
+        <v>0.1128946095705032</v>
       </c>
       <c r="E61">
-        <v>0.1040226593613624</v>
+        <v>0.1151768565177917</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>110731904</v>
       </c>
       <c r="G61">
-        <v>0.1052972215376997</v>
+        <v>0.1075967977659539</v>
       </c>
       <c r="H61">
-        <v>0.1054456964135169</v>
+        <v>0.1070301596075296</v>
       </c>
       <c r="I61">
-        <v>0.1065648555755615</v>
+        <v>0.1058595905701319</v>
       </c>
       <c r="L61">
-        <v>40.33640970133127</v>
+        <v>89.26564270399679</v>
       </c>
       <c r="M61">
-        <v>40.96347160210357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>83.93745727020877</v>
+      </c>
+      <c r="O61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.1040197238326072</v>
+        <v>0.1151768565177917</v>
       </c>
       <c r="C62">
-        <v>0.1040494963526725</v>
+        <v>0.1151768565177917</v>
       </c>
       <c r="D62">
-        <v>0.1036464348435401</v>
+        <v>0.1135956868529319</v>
       </c>
       <c r="E62">
-        <v>0.1039045676589012</v>
+        <v>0.1143466681241989</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>10687104</v>
       </c>
       <c r="G62">
-        <v>0.1051706166396271</v>
+        <v>0.1082104223439762</v>
       </c>
       <c r="H62">
-        <v>0.1053759083151817</v>
+        <v>0.1075219374150037</v>
       </c>
       <c r="I62">
-        <v>0.1064348816871643</v>
+        <v>0.1061950519680976</v>
       </c>
       <c r="L62">
-        <v>39.44104110835663</v>
+        <v>81.74486840746931</v>
       </c>
       <c r="M62">
-        <v>40.41297512133835</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>78.50821222762757</v>
+      </c>
+      <c r="O62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.103912815451622</v>
+        <v>0.1143469810485839</v>
       </c>
       <c r="C63">
-        <v>0.1041123941540718</v>
+        <v>0.1144235879182815</v>
       </c>
       <c r="D63">
-        <v>0.1035616695880889</v>
+        <v>0.1137289851903915</v>
       </c>
       <c r="E63">
-        <v>0.103644885122776</v>
+        <v>0.1141603961586952</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>2369280</v>
       </c>
       <c r="G63">
-        <v>0.1050319137744588</v>
+        <v>0.1087513290544052</v>
       </c>
       <c r="H63">
-        <v>0.1053136847913265</v>
+        <v>0.108020794391632</v>
       </c>
       <c r="I63">
-        <v>0.1062775507569313</v>
+        <v>0.106524363408486</v>
       </c>
       <c r="L63">
-        <v>37.3879323847369</v>
+        <v>80.04262022802905</v>
       </c>
       <c r="M63">
-        <v>39.16650838852789</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>77.30006731422755</v>
+      </c>
+      <c r="O63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.1036387756466865</v>
+        <v>0.1141495332121849</v>
       </c>
       <c r="C64">
-        <v>0.1041791886091232</v>
+        <v>0.1174941807985305</v>
       </c>
       <c r="D64">
-        <v>0.1036196202039718</v>
+        <v>0.1141495332121849</v>
       </c>
       <c r="E64">
-        <v>0.1041070371866226</v>
+        <v>0.1168575510382652</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>31484160</v>
       </c>
       <c r="G64">
-        <v>0.1049478340846556</v>
+        <v>0.1094882583256652</v>
       </c>
       <c r="H64">
-        <v>0.1051777359098196</v>
+        <v>0.1086385078728199</v>
       </c>
       <c r="I64">
-        <v>0.1061238144834836</v>
+        <v>0.1069513390461603</v>
       </c>
       <c r="L64">
-        <v>43.2975585902027</v>
+        <v>85.09768764935805</v>
       </c>
       <c r="M64">
-        <v>42.56187710776668</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>81.69307869676973</v>
+      </c>
+      <c r="O64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.1041136533021926</v>
+        <v>0.1168626472353935</v>
       </c>
       <c r="C65">
-        <v>0.1041724383831024</v>
+        <v>0.1170415431261062</v>
       </c>
       <c r="D65">
-        <v>0.1035650819540023</v>
+        <v>0.1153635457158088</v>
       </c>
       <c r="E65">
-        <v>0.1038058027625083</v>
+        <v>0.1156347095966339</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>13292480</v>
       </c>
       <c r="G65">
-        <v>0.1048440130553694</v>
+        <v>0.110047026623026</v>
       </c>
       <c r="H65">
-        <v>0.1049766708165407</v>
+        <v>0.1091552384197712</v>
       </c>
       <c r="I65">
-        <v>0.1059116644163926</v>
+        <v>0.1073313141862551</v>
       </c>
       <c r="L65">
-        <v>40.49487388909917</v>
+        <v>75.3614838362802</v>
       </c>
       <c r="M65">
-        <v>40.95723133244478</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>74.64030260020949</v>
+      </c>
+      <c r="O65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.1038007065653801</v>
+        <v>0.1156272366642952</v>
       </c>
       <c r="C66">
-        <v>0.1041187271475792</v>
+        <v>0.1167694181203842</v>
       </c>
       <c r="D66">
-        <v>0.1035744771361351</v>
+        <v>0.1144586056470871</v>
       </c>
       <c r="E66">
-        <v>0.1037860289216041</v>
+        <v>0.1144773438572883</v>
       </c>
       <c r="F66">
-        <v>573440</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.1047478326795726</v>
+        <v>0.1104497827352316</v>
       </c>
       <c r="H66">
-        <v>0.1047775134444236</v>
+        <v>0.1095967572182416</v>
       </c>
       <c r="I66">
-        <v>0.1057430860896905</v>
+        <v>0.1077026973168055</v>
       </c>
       <c r="L66">
-        <v>40.30221956687797</v>
+        <v>67.17776929556013</v>
       </c>
       <c r="M66">
-        <v>40.84836234784363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>68.60350908958885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.1037902608513832</v>
+        <v>0.1144767329096794</v>
       </c>
       <c r="C67">
-        <v>0.1040623486042022</v>
+        <v>0.1148921102285385</v>
       </c>
       <c r="D67">
-        <v>0.1036565229296684</v>
+        <v>0.1138093098998069</v>
       </c>
       <c r="E67">
-        <v>0.1039551049470901</v>
+        <v>0.114130400121212</v>
       </c>
       <c r="F67">
-        <v>1875168</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.1046757665220742</v>
+        <v>0.1107843843157753</v>
       </c>
       <c r="H67">
-        <v>0.104624705761671</v>
+        <v>0.1100358929485082</v>
       </c>
       <c r="I67">
-        <v>0.1055701387425263</v>
+        <v>0.108098067343235</v>
       </c>
       <c r="L67">
-        <v>42.91466240682649</v>
+        <v>64.80449933534818</v>
       </c>
       <c r="M67">
-        <v>42.26159620280455</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>66.85785386183007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>0.1039568856358528</v>
+        <v>0.1141341403126716</v>
       </c>
       <c r="C68">
-        <v>0.104042612016201</v>
+        <v>0.1141359135508537</v>
       </c>
       <c r="D68">
-        <v>0.1027592048048973</v>
+        <v>0.1121881976723671</v>
       </c>
       <c r="E68">
-        <v>0.102905124425888</v>
+        <v>0.1121881976723671</v>
       </c>
       <c r="F68">
-        <v>14649056</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.1045147990587845</v>
+        <v>0.1109120037118291</v>
       </c>
       <c r="H68">
-        <v>0.1043927144259214</v>
+        <v>0.1103117033839225</v>
       </c>
       <c r="I68">
-        <v>0.105388260881106</v>
+        <v>0.1084238606194655</v>
       </c>
       <c r="L68">
-        <v>32.86637314371448</v>
+        <v>53.01027043282885</v>
       </c>
       <c r="M68">
-        <v>36.43922041368207</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>57.96576410631228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.1029064282774925</v>
+        <v>0.1121981665492057</v>
       </c>
       <c r="C69">
-        <v>0.1029338613152504</v>
+        <v>0.1126357465982437</v>
       </c>
       <c r="D69">
-        <v>0.1013555154204368</v>
+        <v>0.1111324056982994</v>
       </c>
       <c r="E69">
-        <v>0.101736381649971</v>
+        <v>0.1111434325575828</v>
       </c>
       <c r="F69">
-        <v>27351872</v>
+        <v>10374976</v>
       </c>
       <c r="G69">
-        <v>0.1042622156579833</v>
+        <v>0.1109330426978067</v>
       </c>
       <c r="H69">
-        <v>0.1041265282779932</v>
+        <v>0.1105820942670106</v>
       </c>
       <c r="I69">
-        <v>0.1051256368557612</v>
+        <v>0.1087032094597816</v>
       </c>
       <c r="L69">
-        <v>25.41459599861192</v>
+        <v>47.75102128624677</v>
       </c>
       <c r="M69">
-        <v>31.27429305176438</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>53.81911925084076</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.1017380878329277</v>
+        <v>0.111140638589859</v>
       </c>
       <c r="C70">
-        <v>0.1035642698407173</v>
+        <v>0.1127020493149757</v>
       </c>
       <c r="D70">
-        <v>0.1017298400402069</v>
+        <v>0.111140638589859</v>
       </c>
       <c r="E70">
-        <v>0.1034205481410026</v>
+        <v>0.1124551892280578</v>
       </c>
       <c r="F70">
-        <v>22235424</v>
+        <v>202624</v>
       </c>
       <c r="G70">
-        <v>0.1041857004291669</v>
+        <v>0.1110714196551023</v>
       </c>
       <c r="H70">
-        <v>0.1039435032755136</v>
+        <v>0.1108969993889331</v>
       </c>
       <c r="I70">
-        <v>0.1049359376231829</v>
+        <v>0.1089993136624495</v>
       </c>
       <c r="L70">
-        <v>45.46091136197001</v>
+        <v>54.17304451501732</v>
       </c>
       <c r="M70">
-        <v>43.6656576541157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>57.89206411439579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.1034103855490684</v>
+        <v>0.1124629229307174</v>
       </c>
       <c r="C71">
-        <v>0.1040224805474281</v>
+        <v>0.1130203157663345</v>
       </c>
       <c r="D71">
-        <v>0.102964848279953</v>
+        <v>0.1123479008674621</v>
       </c>
       <c r="E71">
-        <v>0.1035454496741294</v>
+        <v>0.1128503829240799</v>
       </c>
       <c r="F71">
-        <v>17029616</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.1041274958150726</v>
+        <v>0.1112331435886457</v>
       </c>
       <c r="H71">
-        <v>0.1038400556892156</v>
+        <v>0.1112282056361437</v>
       </c>
       <c r="I71">
-        <v>0.1047908286253611</v>
+        <v>0.1092949154476324</v>
       </c>
       <c r="L71">
-        <v>46.65708095649692</v>
+        <v>56.00577655307963</v>
       </c>
       <c r="M71">
-        <v>44.46536533909032</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>59.06344733074662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>0.1035504266619682</v>
+        <v>0.112846590578556</v>
       </c>
       <c r="C72">
-        <v>0.1038624048233032</v>
+        <v>0.1139717921614646</v>
       </c>
       <c r="D72">
-        <v>0.1030978858470916</v>
+        <v>0.1127642542123794</v>
       </c>
       <c r="E72">
-        <v>0.1033408343791961</v>
+        <v>0.1139665469527244</v>
       </c>
       <c r="F72">
-        <v>20912320</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.1040559811390838</v>
+        <v>0.1114816348035619</v>
       </c>
       <c r="H72">
-        <v>0.1037066061049699</v>
+        <v>0.1115950230509043</v>
       </c>
       <c r="I72">
-        <v>0.1047255121171474</v>
+        <v>0.109610096613566</v>
       </c>
       <c r="L72">
-        <v>44.84442176303912</v>
+        <v>60.96590189886975</v>
       </c>
       <c r="M72">
-        <v>43.37895928407048</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>62.25700051067571</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.1033404916524887</v>
+        <v>0.1139708310365676</v>
       </c>
       <c r="C73">
-        <v>0.104289561510086</v>
+        <v>0.114309124648571</v>
       </c>
       <c r="D73">
-        <v>0.1031202524900436</v>
+        <v>0.1130241155624389</v>
       </c>
       <c r="E73">
-        <v>0.1042828261852264</v>
+        <v>0.1130241155624389</v>
       </c>
       <c r="F73">
-        <v>30736352</v>
+        <v>15285184</v>
       </c>
       <c r="G73">
-        <v>0.1040766034160058</v>
+        <v>0.1116218603270962</v>
       </c>
       <c r="H73">
-        <v>0.1036725681275129</v>
+        <v>0.1118917353451252</v>
       </c>
       <c r="I73">
-        <v>0.1047052944699923</v>
+        <v>0.109904791911443</v>
       </c>
       <c r="L73">
-        <v>54.08350494185175</v>
+        <v>55.06833121702167</v>
       </c>
       <c r="M73">
-        <v>49.49660849496271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>58.13323660645875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.104288674890995</v>
+        <v>0.1130236983299255</v>
       </c>
       <c r="C74">
-        <v>0.1043203026056289</v>
+        <v>0.1135162413120269</v>
       </c>
       <c r="D74">
-        <v>0.1038780957460403</v>
+        <v>0.1119023934006691</v>
       </c>
       <c r="E74">
-        <v>0.1042810529470443</v>
+        <v>0.1119023934006691</v>
       </c>
       <c r="F74">
-        <v>7640960</v>
+        <v>11204928</v>
       </c>
       <c r="G74">
-        <v>0.1040951897370093</v>
+        <v>0.1116473633337846</v>
       </c>
       <c r="H74">
-        <v>0.103691542521119</v>
+        <v>0.1121135264635086</v>
       </c>
       <c r="I74">
-        <v>0.1046204624076684</v>
+        <v>0.1101514289776484</v>
       </c>
       <c r="L74">
-        <v>54.06432608576024</v>
+        <v>48.7532646365874</v>
       </c>
       <c r="M74">
-        <v>49.48576943340281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>53.58378327661764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.1042934954166412</v>
+        <v>0.1119023934006691</v>
       </c>
       <c r="C75">
-        <v>0.1042934954166412</v>
+        <v>0.1122065633535385</v>
       </c>
       <c r="D75">
-        <v>0.1037740111351013</v>
+        <v>0.1078919768333435</v>
       </c>
       <c r="E75">
-        <v>0.1040482819080352</v>
+        <v>0.1087375432252883</v>
       </c>
       <c r="F75">
-        <v>5298528</v>
+        <v>36021216</v>
       </c>
       <c r="G75">
-        <v>0.1040909253889208</v>
+        <v>0.1113828342330122</v>
       </c>
       <c r="H75">
-        <v>0.1036934122443199</v>
+        <v>0.1122205212712288</v>
       </c>
       <c r="I75">
-        <v>0.1044945016503334</v>
+        <v>0.1102660104632377</v>
       </c>
       <c r="L75">
-        <v>51.37393687392468</v>
+        <v>35.74297219630949</v>
       </c>
       <c r="M75">
-        <v>47.99982539913876</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>43.29000354903238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.1040546149015426</v>
+        <v>0.1087096408009529</v>
       </c>
       <c r="C76">
-        <v>0.1045213639736175</v>
+        <v>0.1089095696806907</v>
       </c>
       <c r="D76">
-        <v>0.1039974242448806</v>
+        <v>0.1080547869205474</v>
       </c>
       <c r="E76">
-        <v>0.1042354553937912</v>
+        <v>0.1087950617074966</v>
       </c>
       <c r="F76">
-        <v>193552</v>
+        <v>2979520</v>
       </c>
       <c r="G76">
-        <v>0.1041040644802726</v>
+        <v>0.1111475821852381</v>
       </c>
       <c r="H76">
-        <v>0.1036822188645601</v>
+        <v>0.1123132303357124</v>
       </c>
       <c r="I76">
-        <v>0.1043767109513282</v>
+        <v>0.1103709469238917</v>
       </c>
       <c r="L76">
-        <v>53.4686191839527</v>
+        <v>36.09166872063911</v>
       </c>
       <c r="M76">
-        <v>49.31771307051045</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>43.50243078851422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.1042326092720031</v>
+        <v>0.1088000386953353</v>
       </c>
       <c r="C77">
-        <v>0.1042326092720031</v>
+        <v>0.1098831295967102</v>
       </c>
       <c r="D77">
-        <v>0.1033119261264801</v>
+        <v>0.1087132692337036</v>
       </c>
       <c r="E77">
-        <v>0.1033358499407768</v>
+        <v>0.1098624467849731</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>7329024</v>
       </c>
       <c r="G77">
-        <v>0.1040342267948639</v>
+        <v>0.1110307516943049</v>
       </c>
       <c r="H77">
-        <v>0.1036587566137313</v>
+        <v>0.1124623816460371</v>
       </c>
       <c r="I77">
-        <v>0.1042541973292827</v>
+        <v>0.1105214389661948</v>
       </c>
       <c r="L77">
-        <v>43.367420379279</v>
+        <v>42.59509497218927</v>
       </c>
       <c r="M77">
-        <v>43.59848487976414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>47.43726916628012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>0.1033526882529258</v>
+        <v>0.1098608672618866</v>
       </c>
       <c r="C78">
-        <v>0.1034651547670364</v>
+        <v>0.1103925853967666</v>
       </c>
       <c r="D78">
-        <v>0.101881243288517</v>
+        <v>0.1091259941458702</v>
       </c>
       <c r="E78">
-        <v>0.1022692993283271</v>
+        <v>0.1091259941458702</v>
       </c>
       <c r="F78">
-        <v>9826688</v>
+        <v>557152</v>
       </c>
       <c r="G78">
-        <v>0.1038737788433605</v>
+        <v>0.1108575919171745</v>
       </c>
       <c r="H78">
-        <v>0.1036289982497691</v>
+        <v>0.1125816941261291</v>
       </c>
       <c r="I78">
-        <v>0.1040783422688643</v>
+        <v>0.1106032391389211</v>
       </c>
       <c r="L78">
-        <v>34.63923190155737</v>
+        <v>39.47689510951828</v>
       </c>
       <c r="M78">
-        <v>37.97566742792909</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>45.10320434863459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.102260947227478</v>
+        <v>0.1091265082359314</v>
       </c>
       <c r="C79">
-        <v>0.1024254411458969</v>
+        <v>0.1091678515076637</v>
       </c>
       <c r="D79">
-        <v>0.1016905531287193</v>
+        <v>0.1075421422719955</v>
       </c>
       <c r="E79">
-        <v>0.1024143993854522</v>
+        <v>0.1078972965478897</v>
       </c>
       <c r="F79">
-        <v>1681376</v>
+        <v>10915776</v>
       </c>
       <c r="G79">
-        <v>0.1037411079835507</v>
+        <v>0.1105884741563304</v>
       </c>
       <c r="H79">
-        <v>0.1035620663315057</v>
+        <v>0.1125057004392147</v>
       </c>
       <c r="I79">
-        <v>0.1039234854280948</v>
+        <v>0.11067529519399</v>
       </c>
       <c r="L79">
-        <v>36.59240373285556</v>
+        <v>34.70791422599601</v>
       </c>
       <c r="M79">
-        <v>39.12590071764318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>41.43971555065606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>0.1024026498198509</v>
+        <v>0.1078899949789047</v>
       </c>
       <c r="C80">
-        <v>0.1027629673480987</v>
+        <v>0.1083156242966651</v>
       </c>
       <c r="D80">
-        <v>0.1019229292869567</v>
+        <v>0.1077659279108047</v>
       </c>
       <c r="E80">
-        <v>0.1027629673480987</v>
+        <v>0.1081560775637626</v>
       </c>
       <c r="F80">
-        <v>38204368</v>
+        <v>6095872</v>
       </c>
       <c r="G80">
-        <v>0.1036521861076005</v>
+        <v>0.1103673471933697</v>
       </c>
       <c r="H80">
-        <v>0.1034902278333902</v>
+        <v>0.1122444301843643</v>
       </c>
       <c r="I80">
-        <v>0.1037795494000116</v>
+        <v>0.1107419282197952</v>
       </c>
       <c r="L80">
-        <v>41.3305425869744</v>
+        <v>36.52479582681121</v>
       </c>
       <c r="M80">
-        <v>41.91272388712817</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>42.4990535503221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.1027649492025375</v>
+        <v>0.1081548705697059</v>
       </c>
       <c r="C81">
-        <v>0.1036214455962181</v>
+        <v>0.1085378527641296</v>
       </c>
       <c r="D81">
-        <v>0.1027649492025375</v>
+        <v>0.1080594360828399</v>
       </c>
       <c r="E81">
-        <v>0.1035720631480217</v>
+        <v>0.1080594360828399</v>
       </c>
       <c r="F81">
-        <v>2779824</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.1036449022021843</v>
+        <v>0.1101575370924124</v>
       </c>
       <c r="H81">
-        <v>0.1034676980227232</v>
+        <v>0.1118885591626167</v>
       </c>
       <c r="I81">
-        <v>0.1037114714582761</v>
+        <v>0.1108030341565609</v>
       </c>
       <c r="L81">
-        <v>50.90969762680736</v>
+        <v>36.10272075588139</v>
       </c>
       <c r="M81">
-        <v>47.87756306587526</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>42.19209599980314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>0.1035749167203903</v>
+        <v>0.1080650240182876</v>
       </c>
       <c r="C82">
-        <v>0.1039823293685913</v>
+        <v>0.1083903238177299</v>
       </c>
       <c r="D82">
-        <v>0.1035392135381698</v>
+        <v>0.1080282479524612</v>
       </c>
       <c r="E82">
-        <v>0.1039823293685913</v>
+        <v>0.1080492287874221</v>
       </c>
       <c r="F82">
-        <v>2602992</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.1036755773991304</v>
+        <v>0.1099658727010496</v>
       </c>
       <c r="H82">
-        <v>0.1034715861082077</v>
+        <v>0.1115736871957778</v>
       </c>
       <c r="I82">
-        <v>0.1036438882350921</v>
+        <v>0.1108503351608912</v>
       </c>
       <c r="L82">
-        <v>55.0923678409662</v>
+        <v>36.05321615677886</v>
       </c>
       <c r="M82">
-        <v>50.64513062614723</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>42.15746178801275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.1039881780743599</v>
+        <v>0.1080488935112953</v>
       </c>
       <c r="C83">
-        <v>0.1045842468738555</v>
+        <v>0.1082008257508277</v>
       </c>
       <c r="D83">
-        <v>0.1039861217141151</v>
+        <v>0.1075509339570999</v>
       </c>
       <c r="E83">
-        <v>0.1045111119747161</v>
+        <v>0.1075509339570999</v>
       </c>
       <c r="F83">
-        <v>3532944</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.10375153508782</v>
+        <v>0.109746332815236</v>
       </c>
       <c r="H83">
-        <v>0.1035148974508046</v>
+        <v>0.1112432140856981</v>
       </c>
       <c r="I83">
-        <v>0.1036288057764371</v>
+        <v>0.1108657039701938</v>
       </c>
       <c r="L83">
-        <v>60.0303770007033</v>
+        <v>33.52830860873641</v>
       </c>
       <c r="M83">
-        <v>54.03292085532957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>40.41340727249712</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>0.1045285239815712</v>
+        <v>0.1075523719191551</v>
       </c>
       <c r="C84">
-        <v>0.1045769527554512</v>
+        <v>0.1091925129294395</v>
       </c>
       <c r="D84">
-        <v>0.1031263023614883</v>
+        <v>0.1075044572353363</v>
       </c>
       <c r="E84">
-        <v>0.1041832566261291</v>
+        <v>0.1091807335615158</v>
       </c>
       <c r="F84">
-        <v>6908384</v>
+        <v>3168928</v>
       </c>
       <c r="G84">
-        <v>0.1037907825003935</v>
+        <v>0.1096949147012614</v>
       </c>
       <c r="H84">
-        <v>0.10351870842278</v>
+        <v>0.1108593732118606</v>
       </c>
       <c r="I84">
-        <v>0.1036381954948107</v>
+        <v>0.1109228427211443</v>
       </c>
       <c r="L84">
-        <v>55.75409680437087</v>
+        <v>47.1478996762504</v>
       </c>
       <c r="M84">
-        <v>51.66497106037569</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>47.99199535612289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>0.1043036058545112</v>
+        <v>0.1091867163777351</v>
       </c>
       <c r="C85">
-        <v>0.1045531257987022</v>
+        <v>0.1091892197728157</v>
       </c>
       <c r="D85">
-        <v>0.1037809327244758</v>
+        <v>0.1079418659210205</v>
       </c>
       <c r="E85">
-        <v>0.1045032814145088</v>
+        <v>0.1079499274492263</v>
       </c>
       <c r="F85">
-        <v>20406112</v>
+        <v>5919360</v>
       </c>
       <c r="G85">
-        <v>0.1038555551289495</v>
+        <v>0.109536279496531</v>
       </c>
       <c r="H85">
-        <v>0.10355358235538</v>
+        <v>0.1104751341044902</v>
       </c>
       <c r="I85">
-        <v>0.1036546086271603</v>
+        <v>0.1109679187337557</v>
       </c>
       <c r="L85">
-        <v>58.964151067945</v>
+        <v>40.15750057884836</v>
       </c>
       <c r="M85">
-        <v>53.79361052340012</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>43.49315311995284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>0.1045007109642028</v>
+        <v>0.1079442799091339</v>
       </c>
       <c r="C86">
-        <v>0.1057860180735588</v>
+        <v>0.1081288903951644</v>
       </c>
       <c r="D86">
-        <v>0.1038227453827858</v>
+        <v>0.1077329367399215</v>
       </c>
       <c r="E86">
-        <v>0.105300098657608</v>
+        <v>0.1080458164215087</v>
       </c>
       <c r="F86">
-        <v>36918944</v>
+        <v>458304</v>
       </c>
       <c r="G86">
-        <v>0.1039868772679184</v>
+        <v>0.1094007828533471</v>
       </c>
       <c r="H86">
-        <v>0.1036292858421802</v>
+        <v>0.1101535577327013</v>
       </c>
       <c r="I86">
-        <v>0.103682634482781</v>
+        <v>0.1110047499338786</v>
       </c>
       <c r="L86">
-        <v>65.89498086194017</v>
+        <v>40.92516895587943</v>
       </c>
       <c r="M86">
-        <v>58.67368646724589</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>43.93410824446402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.1052942276000976</v>
+        <v>0.1080464869737625</v>
       </c>
       <c r="C87">
-        <v>0.105779118835926</v>
+        <v>0.1084025129675865</v>
       </c>
       <c r="D87">
-        <v>0.1052636876702308</v>
+        <v>0.107968084514141</v>
       </c>
       <c r="E87">
-        <v>0.1056469678878784</v>
+        <v>0.1083121672272682</v>
       </c>
       <c r="F87">
-        <v>7073632</v>
+        <v>2076352</v>
       </c>
       <c r="G87">
-        <v>0.1041377945970057</v>
+        <v>0.1093018177964308</v>
       </c>
       <c r="H87">
-        <v>0.1037138789892196</v>
+        <v>0.1098626460880041</v>
       </c>
       <c r="I87">
-        <v>0.1037440302471319</v>
+        <v>0.1110525081555048</v>
       </c>
       <c r="L87">
-        <v>68.50044890818334</v>
+        <v>43.20202035927539</v>
       </c>
       <c r="M87">
-        <v>60.62333023500976</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>45.21302039329898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>0.1056602001190185</v>
+        <v>0.1083077564835548</v>
       </c>
       <c r="C88">
-        <v>0.1057287752628326</v>
+        <v>0.1086510270833969</v>
       </c>
       <c r="D88">
-        <v>0.1048106551170349</v>
+        <v>0.1080129519104957</v>
       </c>
       <c r="E88">
-        <v>0.1053476855158805</v>
+        <v>0.1084278374910354</v>
       </c>
       <c r="F88">
-        <v>8928000</v>
+        <v>4437888</v>
       </c>
       <c r="G88">
-        <v>0.1042477846805398</v>
+        <v>0.1092223650413949</v>
       </c>
       <c r="H88">
-        <v>0.1038360070437192</v>
+        <v>0.1096746280789375</v>
       </c>
       <c r="I88">
-        <v>0.1038268042107423</v>
+        <v>0.111108777920405</v>
       </c>
       <c r="L88">
-        <v>63.7715268906327</v>
+        <v>44.25176473644667</v>
       </c>
       <c r="M88">
-        <v>58.07746003141503</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>45.79133358162355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.1053428426384925</v>
+        <v>0.1084311455488205</v>
       </c>
       <c r="C89">
-        <v>0.1066719889640808</v>
+        <v>0.1095153242349624</v>
       </c>
       <c r="D89">
-        <v>0.1053428426384925</v>
+        <v>0.1084311455488205</v>
       </c>
       <c r="E89">
-        <v>0.1066719889640808</v>
+        <v>0.1095140129327774</v>
       </c>
       <c r="F89">
-        <v>14309888</v>
+        <v>6376944</v>
       </c>
       <c r="G89">
-        <v>0.1044681668881344</v>
+        <v>0.109248878486066</v>
       </c>
       <c r="H89">
-        <v>0.1040827874094247</v>
+        <v>0.1095931570976972</v>
       </c>
       <c r="I89">
-        <v>0.1039241025845209</v>
+        <v>0.111112006008625</v>
       </c>
       <c r="L89">
-        <v>73.03744843203512</v>
+        <v>53.35834636176118</v>
       </c>
       <c r="M89">
-        <v>65.06800338833693</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>51.01974458590709</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.1066799312829971</v>
+        <v>0.109524168074131</v>
       </c>
       <c r="C90">
-        <v>0.1075449138879776</v>
+        <v>0.1097094714641571</v>
       </c>
       <c r="D90">
-        <v>0.1056849583983421</v>
+        <v>0.1091645583510398</v>
       </c>
       <c r="E90">
-        <v>0.1057356148958206</v>
+        <v>0.1092376559972763</v>
       </c>
       <c r="F90">
-        <v>44415040</v>
+        <v>947152</v>
       </c>
       <c r="G90">
-        <v>0.1045833894342877</v>
+        <v>0.1092478582598124</v>
       </c>
       <c r="H90">
-        <v>0.1041985407471656</v>
+        <v>0.1094322804361581</v>
       </c>
       <c r="I90">
-        <v>0.1039752985040346</v>
+        <v>0.1109738784531752</v>
       </c>
       <c r="L90">
-        <v>60.69016785410614</v>
+        <v>50.97490958618644</v>
       </c>
       <c r="M90">
-        <v>57.73698963933569</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>49.70613572196218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.1057441160082817</v>
+        <v>0.1092452630400657</v>
       </c>
       <c r="C91">
-        <v>0.106157086789608</v>
+        <v>0.1095919385552406</v>
       </c>
       <c r="D91">
-        <v>0.1049798503518104</v>
+        <v>0.1086117476224899</v>
       </c>
       <c r="E91">
-        <v>0.106157086789608</v>
+        <v>0.1095919385552406</v>
       </c>
       <c r="F91">
-        <v>11509120</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.1047264528302259</v>
+        <v>0.1092791382866695</v>
       </c>
       <c r="H91">
-        <v>0.1043291226029396</v>
+        <v>0.1092693582177162</v>
       </c>
       <c r="I91">
-        <v>0.1040464460849762</v>
+        <v>0.1107877145210901</v>
       </c>
       <c r="L91">
-        <v>63.78992001678729</v>
+        <v>53.94204810830518</v>
       </c>
       <c r="M91">
-        <v>59.92559548631378</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>51.43251990313581</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.106152057647705</v>
+        <v>0.1095929592847824</v>
       </c>
       <c r="C92">
-        <v>0.1063111871480941</v>
+        <v>0.1096624881029129</v>
       </c>
       <c r="D92">
-        <v>0.1057518869638443</v>
+        <v>0.1072610691189765</v>
       </c>
       <c r="E92">
-        <v>0.1062262579798698</v>
+        <v>0.1072610691189765</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>34074832</v>
       </c>
       <c r="G92">
-        <v>0.1048627987529208</v>
+        <v>0.1090956774532429</v>
       </c>
       <c r="H92">
-        <v>0.1044733937829732</v>
+        <v>0.1089340843260288</v>
       </c>
       <c r="I92">
-        <v>0.1041238357623418</v>
+        <v>0.1105515278875827</v>
       </c>
       <c r="L92">
-        <v>64.30954145747116</v>
+        <v>37.25380139382469</v>
       </c>
       <c r="M92">
-        <v>60.28905717393031</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>41.37085596154638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.1062175408005714</v>
+        <v>0.1072711870074272</v>
       </c>
       <c r="C93">
-        <v>0.1067134439945221</v>
+        <v>0.1080987080931663</v>
       </c>
       <c r="D93">
-        <v>0.1060013100504875</v>
+        <v>0.1070371270179748</v>
       </c>
       <c r="E93">
-        <v>0.1066301986575126</v>
+        <v>0.1079763919115066</v>
       </c>
       <c r="F93">
-        <v>6720</v>
+        <v>19140080</v>
       </c>
       <c r="G93">
-        <v>0.10502347147152</v>
+        <v>0.1089939242221759</v>
       </c>
       <c r="H93">
-        <v>0.1045907624065876</v>
+        <v>0.1086816981434822</v>
       </c>
       <c r="I93">
-        <v>0.1042233462134997</v>
+        <v>0.1103453944126764</v>
       </c>
       <c r="L93">
-        <v>67.38441729520174</v>
+        <v>43.30907109478436</v>
       </c>
       <c r="M93">
-        <v>62.43188832638515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>44.93131127866689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.1066329479217529</v>
+        <v>0.1079815179109573</v>
       </c>
       <c r="C94">
-        <v>0.1072375625371933</v>
+        <v>0.1080857664346695</v>
       </c>
       <c r="D94">
-        <v>0.1066329479217529</v>
+        <v>0.1069275587797164</v>
       </c>
       <c r="E94">
-        <v>0.1070898696780204</v>
+        <v>0.107299268245697</v>
       </c>
       <c r="F94">
-        <v>239744</v>
+        <v>6256480</v>
       </c>
       <c r="G94">
-        <v>0.1052113258539292</v>
+        <v>0.1088398645879506</v>
       </c>
       <c r="H94">
-        <v>0.1047312032431364</v>
+        <v>0.1084515418857336</v>
       </c>
       <c r="I94">
-        <v>0.1043227739632129</v>
+        <v>0.1100267849862575</v>
       </c>
       <c r="L94">
-        <v>70.62441053432821</v>
+        <v>39.2730017406566</v>
       </c>
       <c r="M94">
-        <v>64.76213330164046</v>
-      </c>
-      <c r="O94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>42.31189185799985</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>0.1070869341492652</v>
+        <v>0.1072989851236343</v>
       </c>
       <c r="C95">
-        <v>0.1075876653194427</v>
+        <v>0.1082661971449852</v>
       </c>
       <c r="D95">
-        <v>0.1067507416009903</v>
+        <v>0.107286587357521</v>
       </c>
       <c r="E95">
-        <v>0.1074665710330009</v>
+        <v>0.1082342639565467</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1156608</v>
       </c>
       <c r="G95">
-        <v>0.1054163481429357</v>
+        <v>0.1087848099850957</v>
       </c>
       <c r="H95">
-        <v>0.1049021176993847</v>
+        <v>0.1084263779222965</v>
       </c>
       <c r="I95">
-        <v>0.1044447995722293</v>
+        <v>0.1097801034649213</v>
       </c>
       <c r="L95">
-        <v>73.08903530127995</v>
+        <v>46.95259229024699</v>
       </c>
       <c r="M95">
-        <v>66.59099352915891</v>
-      </c>
-      <c r="O95" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>46.91405306755182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.1074577420949935</v>
+        <v>0.1082416027784347</v>
       </c>
       <c r="C96">
-        <v>0.108006827533245</v>
+        <v>0.1092024520039558</v>
       </c>
       <c r="D96">
-        <v>0.1065864264965057</v>
+        <v>0.1082416027784347</v>
       </c>
       <c r="E96">
-        <v>0.1065976470708847</v>
+        <v>0.1091797202825546</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>12155392</v>
       </c>
       <c r="G96">
-        <v>0.1055237389545674</v>
+        <v>0.1088207109212283</v>
       </c>
       <c r="H96">
-        <v>0.1050202272832393</v>
+        <v>0.1084456108510494</v>
       </c>
       <c r="I96">
-        <v>0.1045385201772054</v>
+        <v>0.1096035160124302</v>
       </c>
       <c r="L96">
-        <v>60.02114183522313</v>
+        <v>53.62422067505672</v>
       </c>
       <c r="M96">
-        <v>58.98615077630834</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>51.15724089676294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.1066008135676384</v>
+        <v>0.1091726943850517</v>
       </c>
       <c r="C97">
-        <v>0.1070284023880958</v>
+        <v>0.1096446141600608</v>
       </c>
       <c r="D97">
-        <v>0.1062039136886596</v>
+        <v>0.1088724881410598</v>
       </c>
       <c r="E97">
-        <v>0.1069408804178237</v>
+        <v>0.1091045141220092</v>
       </c>
       <c r="F97">
-        <v>19277472</v>
+        <v>8282624</v>
       </c>
       <c r="G97">
-        <v>0.1056525699966816</v>
+        <v>0.1088465112122084</v>
       </c>
       <c r="H97">
-        <v>0.1052004788070917</v>
+        <v>0.1084077142179012</v>
       </c>
       <c r="I97">
-        <v>0.1046380460262298</v>
+        <v>0.1094359864791234</v>
       </c>
       <c r="L97">
-        <v>62.96380116205822</v>
+        <v>53.02741545931514</v>
       </c>
       <c r="M97">
-        <v>60.88633471818898</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>50.80934213044444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.1069470718502998</v>
+        <v>0.1090872511267662</v>
       </c>
       <c r="C98">
-        <v>0.107626274228096</v>
+        <v>0.1096305772662162</v>
       </c>
       <c r="D98">
-        <v>0.1058277338743209</v>
+        <v>0.1079360246658325</v>
       </c>
       <c r="E98">
-        <v>0.1068794205784797</v>
+        <v>0.1096188724040985</v>
       </c>
       <c r="F98">
-        <v>43650176</v>
+        <v>9523648</v>
       </c>
       <c r="G98">
-        <v>0.1057641018677542</v>
+        <v>0.1089167258660166</v>
       </c>
       <c r="H98">
-        <v>0.1054309848695993</v>
+        <v>0.1084323581308126</v>
       </c>
       <c r="I98">
-        <v>0.1047705225646495</v>
+        <v>0.1093503423035144</v>
       </c>
       <c r="L98">
-        <v>62.04385410117197</v>
+        <v>56.73250109157415</v>
       </c>
       <c r="M98">
-        <v>60.34718576797809</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>53.15572716608146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>0.1069097146391868</v>
+        <v>0.1096304655075073</v>
       </c>
       <c r="C99">
-        <v>0.1070621833205223</v>
+        <v>0.1103662773966789</v>
       </c>
       <c r="D99">
-        <v>0.1062563881278038</v>
+        <v>0.1096297800540924</v>
       </c>
       <c r="E99">
-        <v>0.1067397445440292</v>
+        <v>0.11036167293787</v>
       </c>
       <c r="F99">
-        <v>20728256</v>
+        <v>976736</v>
       </c>
       <c r="G99">
-        <v>0.1058527966565065</v>
+        <v>0.1090480846907305</v>
       </c>
       <c r="H99">
-        <v>0.1056472521275282</v>
+        <v>0.1085555769503116</v>
       </c>
       <c r="I99">
-        <v>0.1049373013277848</v>
+        <v>0.109324283649524</v>
       </c>
       <c r="L99">
-        <v>59.80963357512577</v>
+        <v>61.64732985119863</v>
       </c>
       <c r="M99">
-        <v>59.06706921089724</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>56.39081289672319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.1067406684160232</v>
+        <v>0.1103597581386566</v>
       </c>
       <c r="C100">
-        <v>0.1094171702861785</v>
+        <v>0.1105319112539291</v>
       </c>
       <c r="D100">
-        <v>0.1066321432590484</v>
+        <v>0.1099997386336326</v>
       </c>
       <c r="E100">
-        <v>0.1094171702861785</v>
+        <v>0.1104559302330017</v>
       </c>
       <c r="F100">
-        <v>29086688</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.1061768306228403</v>
+        <v>0.1091760706491188</v>
       </c>
       <c r="H100">
-        <v>0.1059799622744321</v>
+        <v>0.1086705695837736</v>
       </c>
       <c r="I100">
-        <v>0.105137188732624</v>
+        <v>0.1092576416830221</v>
       </c>
       <c r="L100">
-        <v>77.37742955796887</v>
+        <v>62.25932995245216</v>
       </c>
       <c r="M100">
-        <v>71.53279447578979</v>
-      </c>
-      <c r="O100" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>56.79852659238168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.1094196885824203</v>
+        <v>0.1104486286640167</v>
       </c>
       <c r="C101">
-        <v>0.1135720536112785</v>
+        <v>0.1106418892741203</v>
       </c>
       <c r="D101">
-        <v>0.1090862452983856</v>
+        <v>0.1099296361207962</v>
       </c>
       <c r="E101">
-        <v>0.1133814826607704</v>
+        <v>0.1106374412775039</v>
       </c>
       <c r="F101">
-        <v>148413472</v>
+        <v>3529088</v>
       </c>
       <c r="G101">
-        <v>0.1068317989899248</v>
+        <v>0.1093089225244265</v>
       </c>
       <c r="H101">
-        <v>0.1064704332500696</v>
+        <v>0.1087994698435068</v>
       </c>
       <c r="I101">
-        <v>0.1054650564988454</v>
+        <v>0.1091838769614696</v>
       </c>
       <c r="L101">
-        <v>86.90908420890608</v>
+        <v>63.52042063290445</v>
       </c>
       <c r="M101">
-        <v>80.83792345852568</v>
-      </c>
-      <c r="O101" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>57.62021808952007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.113378420472145</v>
+        <v>0.1106399297714233</v>
       </c>
       <c r="C102">
-        <v>0.1159606575965881</v>
+        <v>0.1106399297714233</v>
       </c>
       <c r="D102">
-        <v>0.1128946095705032</v>
+        <v>0.109763815999031</v>
       </c>
       <c r="E102">
-        <v>0.1151768565177917</v>
+        <v>0.1101676002144813</v>
       </c>
       <c r="F102">
-        <v>110731904</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.1075904405833673</v>
+        <v>0.1093869841326133</v>
       </c>
       <c r="H102">
-        <v>0.1070301596075296</v>
+        <v>0.1089053884148597</v>
       </c>
       <c r="I102">
-        <v>0.1058595905701319</v>
+        <v>0.1090572454035282</v>
       </c>
       <c r="L102">
-        <v>89.22263260530237</v>
+        <v>57.88763819065277</v>
       </c>
       <c r="M102">
-        <v>83.47273869642912</v>
-      </c>
-      <c r="O102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>54.71899614807646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.1151768565177917</v>
+        <v>0.1101720631122589</v>
       </c>
       <c r="C103">
-        <v>0.1151768565177917</v>
+        <v>0.1102009788155555</v>
       </c>
       <c r="D103">
-        <v>0.1135956868529319</v>
+        <v>0.1097685769200325</v>
       </c>
       <c r="E103">
-        <v>0.1143466681241989</v>
+        <v>0.110013261437416</v>
       </c>
       <c r="F103">
-        <v>10687104</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0.1082046430870792</v>
+        <v>0.1094439184330499</v>
       </c>
       <c r="H103">
-        <v>0.1075219374150038</v>
+        <v>0.1090285047888755</v>
       </c>
       <c r="I103">
-        <v>0.1061950519680976</v>
+        <v>0.1089568835993607</v>
       </c>
       <c r="L103">
-        <v>81.71054015752134</v>
+        <v>56.0508117366665</v>
       </c>
       <c r="M103">
-        <v>78.12345672644256</v>
-      </c>
-      <c r="O103" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>53.76139349568574</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.1143469810485839</v>
+        <v>0.1100148186087608</v>
       </c>
       <c r="C104">
-        <v>0.1144235879182815</v>
+        <v>0.1104824468493461</v>
       </c>
       <c r="D104">
-        <v>0.1137289851903915</v>
+        <v>0.1099497303366661</v>
       </c>
       <c r="E104">
-        <v>0.1141603961586952</v>
+        <v>0.11017407476902</v>
       </c>
       <c r="F104">
-        <v>2369280</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>0.1087460751844989</v>
+        <v>0.1095102962817745</v>
       </c>
       <c r="H104">
-        <v>0.1080207943916321</v>
+        <v>0.1090781718492508</v>
       </c>
       <c r="I104">
-        <v>0.106524363408486</v>
+        <v>0.1088992729783058</v>
       </c>
       <c r="L104">
-        <v>80.01012793669929</v>
+        <v>57.6268703113146</v>
       </c>
       <c r="M104">
-        <v>76.9321753183968</v>
-      </c>
-      <c r="O104" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>54.65190180327831</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.1141495332121849</v>
+        <v>0.1101744025945663</v>
       </c>
       <c r="C105">
-        <v>0.1174941807985305</v>
+        <v>0.1103945598006248</v>
       </c>
       <c r="D105">
-        <v>0.1141495332121849</v>
+        <v>0.109802708029747</v>
       </c>
       <c r="E105">
-        <v>0.1168575510382652</v>
+        <v>0.1098805293440818</v>
       </c>
       <c r="F105">
-        <v>31484160</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0.1094834820802958</v>
+        <v>0.1095439538328933</v>
       </c>
       <c r="H105">
-        <v>0.1086385078728199</v>
+        <v>0.1091747019439935</v>
       </c>
       <c r="I105">
-        <v>0.1069513390461603</v>
+        <v>0.1089373725155989</v>
       </c>
       <c r="L105">
-        <v>85.07093391553913</v>
+        <v>53.67418072740526</v>
       </c>
       <c r="M105">
-        <v>81.36355577950003</v>
-      </c>
-      <c r="O105" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>52.65830174824128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.1168626472353935</v>
+        <v>0.1099039167165756</v>
       </c>
       <c r="C106">
-        <v>0.1170415431261062</v>
+        <v>0.1114632338285446</v>
       </c>
       <c r="D106">
-        <v>0.1153635457158088</v>
+        <v>0.1096568703651428</v>
       </c>
       <c r="E106">
-        <v>0.1156347095966339</v>
+        <v>0.1112664565443992</v>
       </c>
       <c r="F106">
-        <v>13292480</v>
+        <v>16260784</v>
       </c>
       <c r="G106">
-        <v>0.1100426845817811</v>
+        <v>0.1097005449884847</v>
       </c>
       <c r="H106">
-        <v>0.1091552384197712</v>
+        <v>0.109335733950138</v>
       </c>
       <c r="I106">
-        <v>0.1073313141862551</v>
+        <v>0.1090197523434956</v>
       </c>
       <c r="L106">
-        <v>75.34203274996045</v>
+        <v>66.04480317468176</v>
       </c>
       <c r="M106">
-        <v>74.38645193784293</v>
-      </c>
-      <c r="O106" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>60.06516659775849</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.1156272366642952</v>
+        <v>0.1112807467579841</v>
       </c>
       <c r="C107">
-        <v>0.1167694181203842</v>
+        <v>0.1114538386464119</v>
       </c>
       <c r="D107">
-        <v>0.1144586056470871</v>
+        <v>0.1106646880507469</v>
       </c>
       <c r="E107">
-        <v>0.1144773438572883</v>
+        <v>0.1107651218771934</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.110445835425009</v>
+        <v>0.1097973247056401</v>
       </c>
       <c r="H107">
-        <v>0.1095967572182416</v>
+        <v>0.1094583816826343</v>
       </c>
       <c r="I107">
-        <v>0.1077026973168055</v>
+        <v>0.1090498415132363</v>
       </c>
       <c r="L107">
-        <v>67.16360895269496</v>
+        <v>59.5712193675387</v>
       </c>
       <c r="M107">
-        <v>68.40738503423286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>56.61459536679141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.1144767329096794</v>
+        <v>0.1107652261853218</v>
       </c>
       <c r="C108">
-        <v>0.1148921102285385</v>
+        <v>0.1108265072107315</v>
       </c>
       <c r="D108">
-        <v>0.1138093098998069</v>
+        <v>0.1106362044811248</v>
       </c>
       <c r="E108">
-        <v>0.114130400121212</v>
+        <v>0.1107509955763816</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.1107807958519366</v>
+        <v>0.1098840220575257</v>
       </c>
       <c r="H108">
-        <v>0.1100358929485082</v>
+        <v>0.1095745395869016</v>
       </c>
       <c r="I108">
-        <v>0.108098067343235</v>
+        <v>0.1091040082275867</v>
       </c>
       <c r="L108">
-        <v>64.7917285029848</v>
+        <v>59.38669720632191</v>
       </c>
       <c r="M108">
-        <v>66.67720977089074</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>56.51607507240959</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>0.1141341403126716</v>
+        <v>0.1107512041926384</v>
       </c>
       <c r="C109">
-        <v>0.1141359135508537</v>
+        <v>0.1109152883291244</v>
       </c>
       <c r="D109">
-        <v>0.1121881976723671</v>
+        <v>0.1102272942662239</v>
       </c>
       <c r="E109">
-        <v>0.1121881976723671</v>
+        <v>0.1103025749325752</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1714896</v>
       </c>
       <c r="G109">
-        <v>0.1109087414719757</v>
+        <v>0.1099220723188938</v>
       </c>
       <c r="H109">
-        <v>0.1103117033839225</v>
+        <v>0.1096139676868915</v>
       </c>
       <c r="I109">
-        <v>0.1084238606194655</v>
+        <v>0.1091841841737429</v>
       </c>
       <c r="L109">
-        <v>53.00343909527052</v>
+        <v>53.47180839534986</v>
       </c>
       <c r="M109">
-        <v>57.85551542730373</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>53.34275025848723</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.1121981665492057</v>
+        <v>0.1102981865406036</v>
       </c>
       <c r="C110">
-        <v>0.1126357465982437</v>
+        <v>0.1102988347411155</v>
       </c>
       <c r="D110">
-        <v>0.1111324056982994</v>
+        <v>0.1092777848243713</v>
       </c>
       <c r="E110">
-        <v>0.1111434325575828</v>
+        <v>0.1093926280736923</v>
       </c>
       <c r="F110">
-        <v>10374976</v>
+        <v>12568224</v>
       </c>
       <c r="G110">
-        <v>0.1109300770252127</v>
+        <v>0.1098739410238755</v>
       </c>
       <c r="H110">
-        <v>0.1105820942670106</v>
+        <v>0.1096217162907123</v>
       </c>
       <c r="I110">
-        <v>0.1087032094597816</v>
+        <v>0.1092254025240739</v>
       </c>
       <c r="L110">
-        <v>47.74632000046708</v>
+        <v>43.56603473219215</v>
       </c>
       <c r="M110">
-        <v>53.7368576805975</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>47.51275904201012</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.111140638589859</v>
+        <v>0.1093922555446624</v>
       </c>
       <c r="C111">
-        <v>0.1127020493149757</v>
+        <v>0.1096006482839584</v>
       </c>
       <c r="D111">
-        <v>0.111140638589859</v>
+        <v>0.1088864132761955</v>
       </c>
       <c r="E111">
-        <v>0.1124551892280578</v>
+        <v>0.1088864132761955</v>
       </c>
       <c r="F111">
-        <v>202624</v>
+        <v>5620976</v>
       </c>
       <c r="G111">
-        <v>0.1110687235891077</v>
+        <v>0.1097841657740864</v>
       </c>
       <c r="H111">
-        <v>0.1108969993889331</v>
+        <v>0.10958644002676</v>
       </c>
       <c r="I111">
-        <v>0.1089993136624495</v>
+        <v>0.1092529684305191</v>
       </c>
       <c r="L111">
-        <v>54.16736525818324</v>
+        <v>39.03974986432183</v>
       </c>
       <c r="M111">
-        <v>57.79898162394355</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>44.59290115508969</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.1124629229307174</v>
+        <v>0.1088818982243537</v>
       </c>
       <c r="C112">
-        <v>0.1130203157663345</v>
+        <v>0.1089661568403244</v>
       </c>
       <c r="D112">
-        <v>0.1123479008674621</v>
+        <v>0.108075700700283</v>
       </c>
       <c r="E112">
-        <v>0.1128503829240799</v>
+        <v>0.1081751957535743</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>4960896</v>
       </c>
       <c r="G112">
-        <v>0.1112306926195597</v>
+        <v>0.1096378957722216</v>
       </c>
       <c r="H112">
-        <v>0.1112282056361436</v>
+        <v>0.1096321463584899</v>
       </c>
       <c r="I112">
-        <v>0.1092949154476324</v>
+        <v>0.1092571673293908</v>
       </c>
       <c r="L112">
-        <v>55.99989815956382</v>
+        <v>33.53309754644654</v>
       </c>
       <c r="M112">
-        <v>58.96789741258662</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>40.79926162099682</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.112846590578556</v>
+        <v>0.1081929132342338</v>
       </c>
       <c r="C113">
-        <v>0.1139717921614646</v>
+        <v>0.1090825051069259</v>
       </c>
       <c r="D113">
-        <v>0.1127642542123794</v>
+        <v>0.1081269830465316</v>
       </c>
       <c r="E113">
-        <v>0.1139665469527244</v>
+        <v>0.1090710461139679</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>10447696</v>
       </c>
       <c r="G113">
-        <v>0.1114794066498474</v>
+        <v>0.1095863639851077</v>
       </c>
       <c r="H113">
-        <v>0.1115950230509042</v>
+        <v>0.109686879068613</v>
       </c>
       <c r="I113">
-        <v>0.109610096613566</v>
+        <v>0.1093078377346197</v>
       </c>
       <c r="L113">
-        <v>60.95966264976575</v>
+        <v>44.60530794469891</v>
       </c>
       <c r="M113">
-        <v>62.1561877965596</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>46.92423626139028</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.1139708310365676</v>
+        <v>0.10906782746315</v>
       </c>
       <c r="C114">
-        <v>0.114309124648571</v>
+        <v>0.10906782746315</v>
       </c>
       <c r="D114">
-        <v>0.1130241155624389</v>
+        <v>0.1080181449651718</v>
       </c>
       <c r="E114">
-        <v>0.1130241155624389</v>
+        <v>0.108959250152111</v>
       </c>
       <c r="F114">
-        <v>15285184</v>
+        <v>27401712</v>
       </c>
       <c r="G114">
-        <v>0.1116198347328103</v>
+        <v>0.1095293536366534</v>
       </c>
       <c r="H114">
-        <v>0.1118917353451252</v>
+        <v>0.1097698781639337</v>
       </c>
       <c r="I114">
-        <v>0.109904791911443</v>
+        <v>0.1093004549543062</v>
       </c>
       <c r="L114">
-        <v>55.06379462740586</v>
+        <v>43.58596866747796</v>
       </c>
       <c r="M114">
-        <v>58.05437835179605</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>46.28073011327759</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.1130236983299255</v>
+        <v>0.1089407876133918</v>
       </c>
       <c r="C115">
-        <v>0.1135162413120269</v>
+        <v>0.1094690710306167</v>
       </c>
       <c r="D115">
-        <v>0.1119023934006691</v>
+        <v>0.1088843345642089</v>
       </c>
       <c r="E115">
-        <v>0.1119023934006691</v>
+        <v>0.1094322428107261</v>
       </c>
       <c r="F115">
-        <v>11204928</v>
+        <v>22187248</v>
       </c>
       <c r="G115">
-        <v>0.1116455218844338</v>
+        <v>0.1095205253797509</v>
       </c>
       <c r="H115">
-        <v>0.1121135264635086</v>
+        <v>0.1098297771066427</v>
       </c>
       <c r="I115">
-        <v>0.1101514289776484</v>
+        <v>0.1093498654663562</v>
       </c>
       <c r="L115">
-        <v>48.75029027682649</v>
+        <v>49.12021274732264</v>
       </c>
       <c r="M115">
-        <v>53.52663988767525</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>49.43992326130457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.1119023934006691</v>
+        <v>0.109444186091423</v>
       </c>
       <c r="C116">
-        <v>0.1122065633535385</v>
+        <v>0.1095954999327659</v>
       </c>
       <c r="D116">
-        <v>0.1078919768333435</v>
+        <v>0.1086273416876792</v>
       </c>
       <c r="E116">
-        <v>0.1087375432252883</v>
+        <v>0.1089531853795051</v>
       </c>
       <c r="F116">
-        <v>36021216</v>
+        <v>15579792</v>
       </c>
       <c r="G116">
-        <v>0.1113811601881478</v>
+        <v>0.1094689490160922</v>
       </c>
       <c r="H116">
-        <v>0.1122205212712288</v>
+        <v>0.1098184503614902</v>
       </c>
       <c r="I116">
-        <v>0.1102660104632377</v>
+        <v>0.1093801110982894</v>
       </c>
       <c r="L116">
-        <v>35.74236551007581</v>
+        <v>44.18166807954928</v>
       </c>
       <c r="M116">
-        <v>43.27227779870701</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>46.45975453451124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.1087096408009529</v>
+        <v>0.1089695394039154</v>
       </c>
       <c r="C117">
-        <v>0.1089095696806907</v>
+        <v>0.1097123548388481</v>
       </c>
       <c r="D117">
-        <v>0.1080547869205474</v>
+        <v>0.1089695394039154</v>
       </c>
       <c r="E117">
-        <v>0.1087950617074966</v>
+        <v>0.1091581284999847</v>
       </c>
       <c r="F117">
-        <v>2979520</v>
+        <v>10257728</v>
       </c>
       <c r="G117">
-        <v>0.1111460603262704</v>
+        <v>0.109440692605537</v>
       </c>
       <c r="H117">
-        <v>0.1123132303357124</v>
+        <v>0.109821131080389</v>
       </c>
       <c r="I117">
-        <v>0.1103709469238917</v>
+        <v>0.10940830980738</v>
       </c>
       <c r="L117">
-        <v>36.09102336858403</v>
+        <v>46.75794103601596</v>
       </c>
       <c r="M117">
-        <v>43.4841859195814</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>47.90645111964886</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.1088000386953353</v>
+        <v>0.1091677397489547</v>
       </c>
       <c r="C118">
-        <v>0.1098831295967102</v>
+        <v>0.1096419394016265</v>
       </c>
       <c r="D118">
-        <v>0.1087132692337036</v>
+        <v>0.1091677397489547</v>
       </c>
       <c r="E118">
-        <v>0.1098624467849731</v>
+        <v>0.1093057319521904</v>
       </c>
       <c r="F118">
-        <v>7329024</v>
+        <v>4723520</v>
       </c>
       <c r="G118">
-        <v>0.1110293681861525</v>
+        <v>0.1094284234552327</v>
       </c>
       <c r="H118">
-        <v>0.1124623816460371</v>
+        <v>0.1098054740577936</v>
       </c>
       <c r="I118">
-        <v>0.1105214389661947</v>
+        <v>0.1094375729560852</v>
       </c>
       <c r="L118">
-        <v>42.59381237034937</v>
+        <v>48.67723185673803</v>
       </c>
       <c r="M118">
-        <v>47.41020264063184</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>48.9758041902167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.1098608672618866</v>
+        <v>0.1093111634254455</v>
       </c>
       <c r="C119">
-        <v>0.1103925853967666</v>
+        <v>0.10980124771595</v>
       </c>
       <c r="D119">
-        <v>0.1091259941458702</v>
+        <v>0.1093111634254455</v>
       </c>
       <c r="E119">
-        <v>0.1091259941458702</v>
+        <v>0.1093775182962417</v>
       </c>
       <c r="F119">
-        <v>557152</v>
+        <v>9916896</v>
       </c>
       <c r="G119">
-        <v>0.1108563341824905</v>
+        <v>0.1094237957135063</v>
       </c>
       <c r="H119">
-        <v>0.1125816941261291</v>
+        <v>0.1097562663257122</v>
       </c>
       <c r="I119">
-        <v>0.1106032391389211</v>
+        <v>0.1094330231348673</v>
       </c>
       <c r="L119">
-        <v>39.47601874895586</v>
+        <v>49.66991680285875</v>
       </c>
       <c r="M119">
-        <v>45.08315722591963</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>49.51855311829089</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.1091265082359314</v>
+        <v>0.1093955934047699</v>
       </c>
       <c r="C120">
-        <v>0.1091678515076637</v>
+        <v>0.1094036400318145</v>
       </c>
       <c r="D120">
-        <v>0.1075421422719955</v>
+        <v>0.106778047978878</v>
       </c>
       <c r="E120">
-        <v>0.1078972965478897</v>
+        <v>0.1068643257021904</v>
       </c>
       <c r="F120">
-        <v>10915776</v>
+        <v>35959040</v>
       </c>
       <c r="G120">
-        <v>0.1105873307611631</v>
+        <v>0.1091911166215685</v>
       </c>
       <c r="H120">
-        <v>0.1125057004392147</v>
+        <v>0.1095766860991716</v>
       </c>
       <c r="I120">
-        <v>0.11067529519399</v>
+        <v>0.1093539121250311</v>
       </c>
       <c r="L120">
-        <v>34.70756373822571</v>
+        <v>28.19279852455499</v>
       </c>
       <c r="M120">
-        <v>41.42950148113048</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>35.34405248056387</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.1078899949789047</v>
+        <v>0.1068838387727737</v>
       </c>
       <c r="C121">
-        <v>0.1083156242966651</v>
+        <v>0.1073561161756515</v>
       </c>
       <c r="D121">
-        <v>0.1077659279108047</v>
+        <v>0.1061076521873474</v>
       </c>
       <c r="E121">
-        <v>0.1081560775637626</v>
+        <v>0.1071708276867866</v>
       </c>
       <c r="F121">
-        <v>6095872</v>
+        <v>14018432</v>
       </c>
       <c r="G121">
-        <v>0.1103663077432176</v>
+        <v>0.1090074539911337</v>
       </c>
       <c r="H121">
-        <v>0.1122444301843643</v>
+        <v>0.1094033554196357</v>
       </c>
       <c r="I121">
-        <v>0.1107419282197952</v>
+        <v>0.109273208429416</v>
       </c>
       <c r="L121">
-        <v>36.52429952712198</v>
+        <v>32.21423419002966</v>
       </c>
       <c r="M121">
-        <v>42.4866931420679</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>37.68673029360554</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.1081548705697059</v>
+        <v>0.1071930602192878</v>
       </c>
       <c r="C122">
-        <v>0.1085378527641296</v>
+        <v>0.1072027087211608</v>
       </c>
       <c r="D122">
-        <v>0.1080594360828399</v>
+        <v>0.1064241752028465</v>
       </c>
       <c r="E122">
-        <v>0.1080594360828399</v>
+        <v>0.1066269725561142</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>3006848</v>
       </c>
       <c r="G122">
-        <v>0.1101565921377287</v>
+        <v>0.1087910465879502</v>
       </c>
       <c r="H122">
-        <v>0.1118885591626167</v>
+        <v>0.1092263240367174</v>
       </c>
       <c r="I122">
-        <v>0.1108030341565609</v>
+        <v>0.1092520718773206</v>
       </c>
       <c r="L122">
-        <v>36.10226591198791</v>
+        <v>28.9750222572477</v>
       </c>
       <c r="M122">
-        <v>42.18049515716583</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>35.24637445569318</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.1080650240182876</v>
+        <v>0.1066273301839828</v>
       </c>
       <c r="C123">
-        <v>0.1083903238177299</v>
+        <v>0.1071619316935539</v>
       </c>
       <c r="D123">
-        <v>0.1080282479524612</v>
+        <v>0.1063800081610679</v>
       </c>
       <c r="E123">
-        <v>0.1080492287874221</v>
+        <v>0.1071619316935539</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>2898880</v>
       </c>
       <c r="G123">
-        <v>0.1099650136513372</v>
+        <v>0.1086429452339141</v>
       </c>
       <c r="H123">
-        <v>0.1115736871957778</v>
+        <v>0.1090837575495243</v>
       </c>
       <c r="I123">
-        <v>0.1108503351608912</v>
+        <v>0.1092249232033888</v>
       </c>
       <c r="L123">
-        <v>36.0527661204572</v>
+        <v>36.08670924541901</v>
       </c>
       <c r="M123">
-        <v>42.14594603667122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>39.4029729739441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.1080488935112953</v>
+        <v>0.1071579456329345</v>
       </c>
       <c r="C124">
-        <v>0.1082008257508277</v>
+        <v>0.1075076386332511</v>
       </c>
       <c r="D124">
-        <v>0.1075509339570999</v>
+        <v>0.1068784371018409</v>
       </c>
       <c r="E124">
-        <v>0.1075509339570999</v>
+        <v>0.106985405087471</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>4294720</v>
       </c>
       <c r="G124">
-        <v>0.109745551860952</v>
+        <v>0.1084922597660557</v>
       </c>
       <c r="H124">
-        <v>0.1112432140856981</v>
+        <v>0.1089243240654468</v>
       </c>
       <c r="I124">
-        <v>0.1108657039701938</v>
+        <v>0.1092144610981146</v>
       </c>
       <c r="L124">
-        <v>33.52808853908156</v>
+        <v>34.79340545845158</v>
       </c>
       <c r="M124">
-        <v>40.40601619514234</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>38.5241897706167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.1075523719191551</v>
+        <v>0.1069811359047889</v>
       </c>
       <c r="C125">
-        <v>0.1091925129294395</v>
+        <v>0.1072819158434867</v>
       </c>
       <c r="D125">
-        <v>0.1075044572353363</v>
+        <v>0.1069777458906173</v>
       </c>
       <c r="E125">
-        <v>0.1091807335615158</v>
+        <v>0.1071567982435226</v>
       </c>
       <c r="F125">
-        <v>3168928</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0.1096942047428214</v>
+        <v>0.1083708541730981</v>
       </c>
       <c r="H125">
-        <v>0.1108593732118606</v>
+        <v>0.1087881375104189</v>
       </c>
       <c r="I125">
-        <v>0.1109228427211443</v>
+        <v>0.1091785455743471</v>
       </c>
       <c r="L125">
-        <v>47.14687354427139</v>
+        <v>37.24983312862381</v>
       </c>
       <c r="M125">
-        <v>47.97169831134997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>39.92511101556332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.1091867163777351</v>
+        <v>0.1071585118770599</v>
       </c>
       <c r="C126">
-        <v>0.1091892197728157</v>
+        <v>0.1084749996662139</v>
       </c>
       <c r="D126">
-        <v>0.1079418659210205</v>
+        <v>0.1071510687470436</v>
       </c>
       <c r="E126">
-        <v>0.1079499274492263</v>
+        <v>0.1082116365432739</v>
       </c>
       <c r="F126">
-        <v>5919360</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.1095356340797673</v>
+        <v>0.1083563798431141</v>
       </c>
       <c r="H126">
-        <v>0.1104751341044903</v>
+        <v>0.1086353965103626</v>
       </c>
       <c r="I126">
-        <v>0.1109679187337557</v>
+        <v>0.1091462761163711</v>
       </c>
       <c r="L126">
-        <v>40.1569986724178</v>
+        <v>50.2310611565025</v>
       </c>
       <c r="M126">
-        <v>43.48220480147524</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>47.80808021090542</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.1079442799091339</v>
+        <v>0.1082148998975753</v>
       </c>
       <c r="C127">
-        <v>0.1081288903951644</v>
+        <v>0.1086690127849578</v>
       </c>
       <c r="D127">
-        <v>0.1077329367399215</v>
+        <v>0.1082148998975753</v>
       </c>
       <c r="E127">
-        <v>0.1080458164215087</v>
+        <v>0.1085629016160965</v>
       </c>
       <c r="F127">
-        <v>458304</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.1094001961108347</v>
+        <v>0.1083751545497488</v>
       </c>
       <c r="H127">
-        <v>0.1101535577327013</v>
+        <v>0.1085252854973077</v>
       </c>
       <c r="I127">
-        <v>0.1110047499338785</v>
+        <v>0.109128222366174</v>
       </c>
       <c r="L127">
-        <v>40.92463314937381</v>
+        <v>53.81073567427088</v>
       </c>
       <c r="M127">
-        <v>43.9225207746224</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>50.15373056178268</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.1080464869737625</v>
+        <v>0.1085663139820098</v>
       </c>
       <c r="C128">
-        <v>0.1084025129675865</v>
+        <v>0.1087582185864448</v>
       </c>
       <c r="D128">
-        <v>0.107968084514141</v>
+        <v>0.1081984788179397</v>
       </c>
       <c r="E128">
-        <v>0.1083121672272682</v>
+        <v>0.1083591803908348</v>
       </c>
       <c r="F128">
-        <v>2076352</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>0.1093012843941468</v>
+        <v>0.1083737023534839</v>
       </c>
       <c r="H128">
-        <v>0.1098626460880041</v>
+        <v>0.1084056947380304</v>
       </c>
       <c r="I128">
-        <v>0.1110525081555048</v>
+        <v>0.1090862326323986</v>
       </c>
       <c r="L128">
-        <v>43.20139017310097</v>
+        <v>51.39866074171162</v>
       </c>
       <c r="M128">
-        <v>45.19964354113537</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
+        <v>48.78434275702134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.1083077564835548</v>
+        <v>0.1083502396941185</v>
       </c>
       <c r="C129">
-        <v>0.1086510270833969</v>
+        <v>0.1087635606527328</v>
       </c>
       <c r="D129">
-        <v>0.1080129519104957</v>
+        <v>0.1082696989178657</v>
       </c>
       <c r="E129">
-        <v>0.1084278374910354</v>
+        <v>0.1087159141898155</v>
       </c>
       <c r="F129">
-        <v>4437888</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.1092218801302276</v>
+        <v>0.1084048125204232</v>
       </c>
       <c r="H129">
-        <v>0.1096746280789375</v>
+        <v>0.1083263617008924</v>
       </c>
       <c r="I129">
-        <v>0.111108777920405</v>
+        <v>0.1090313740074634</v>
       </c>
       <c r="L129">
-        <v>44.25109414248804</v>
+        <v>55.3421459611063</v>
       </c>
       <c r="M129">
-        <v>45.77717901689841</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>51.29226359040594</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.1084311455488205</v>
+        <v>0.1087209060788154</v>
       </c>
       <c r="C130">
-        <v>0.1095153242349624</v>
+        <v>0.1098484024405479</v>
       </c>
       <c r="D130">
-        <v>0.1084311455488205</v>
+        <v>0.1086786240339279</v>
       </c>
       <c r="E130">
-        <v>0.1095140129327774</v>
+        <v>0.1098129376769065</v>
       </c>
       <c r="F130">
-        <v>6376944</v>
+        <v>8734032</v>
       </c>
       <c r="G130">
-        <v>0.1092484376577321</v>
+        <v>0.1085328238982853</v>
       </c>
       <c r="H130">
-        <v>0.1095931570976972</v>
+        <v>0.1083473771810531</v>
       </c>
       <c r="I130">
-        <v>0.111112006008625</v>
+        <v>0.1090099409222602</v>
       </c>
       <c r="L130">
-        <v>53.35740749453584</v>
+        <v>65.13036310071652</v>
       </c>
       <c r="M130">
-        <v>50.99944750961743</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>58.0889329253206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.109524168074131</v>
+        <v>0.1098124980926513</v>
       </c>
       <c r="C131">
-        <v>0.1097094714641571</v>
+        <v>0.1106874123215675</v>
       </c>
       <c r="D131">
-        <v>0.1091645583510398</v>
+        <v>0.1095825210213661</v>
       </c>
       <c r="E131">
-        <v>0.1092376559972763</v>
+        <v>0.1106039509177208</v>
       </c>
       <c r="F131">
-        <v>947152</v>
+        <v>9744896</v>
       </c>
       <c r="G131">
-        <v>0.1092474575067816</v>
+        <v>0.1087211081727794</v>
       </c>
       <c r="H131">
-        <v>0.1094322804361581</v>
+        <v>0.1084332540631294</v>
       </c>
       <c r="I131">
-        <v>0.1109738784531752</v>
+        <v>0.1090088245769341</v>
       </c>
       <c r="L131">
-        <v>50.97410712169989</v>
+        <v>70.39420485544765</v>
       </c>
       <c r="M131">
-        <v>49.68819779848071</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>62.18625749296812</v>
+      </c>
+      <c r="O131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.1092452630400657</v>
+        <v>0.1106269508600235</v>
       </c>
       <c r="C132">
-        <v>0.1095919385552406</v>
+        <v>0.1117132157087326</v>
       </c>
       <c r="D132">
-        <v>0.1086117476224899</v>
+        <v>0.1106269508600235</v>
       </c>
       <c r="E132">
-        <v>0.1095919385552406</v>
+        <v>0.1115820482373237</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>3503072</v>
       </c>
       <c r="G132">
-        <v>0.1092787739657324</v>
+        <v>0.1089811936331925</v>
       </c>
       <c r="H132">
-        <v>0.1092693582177162</v>
+        <v>0.1086035966873169</v>
       </c>
       <c r="I132">
-        <v>0.1107877145210902</v>
+        <v>0.1090559728443622</v>
       </c>
       <c r="L132">
-        <v>53.94118372534361</v>
+        <v>75.53227303879549</v>
       </c>
       <c r="M132">
-        <v>51.41286503015687</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>66.54193279593383</v>
+      </c>
+      <c r="O132" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.1095929592847824</v>
+        <v>0.1115801632404327</v>
       </c>
       <c r="C133">
-        <v>0.1096624881029129</v>
+        <v>0.1119009926915168</v>
       </c>
       <c r="D133">
-        <v>0.1072610691189765</v>
+        <v>0.1109485924243927</v>
       </c>
       <c r="E133">
-        <v>0.1072610691189765</v>
+        <v>0.1110735163092613</v>
       </c>
       <c r="F133">
-        <v>34074832</v>
+        <v>13272496</v>
       </c>
       <c r="G133">
-        <v>0.109095346252391</v>
+        <v>0.1091714047855624</v>
       </c>
       <c r="H133">
-        <v>0.1089340843260288</v>
+        <v>0.1087037201970815</v>
       </c>
       <c r="I133">
-        <v>0.1105515278875827</v>
+        <v>0.1090913146734237</v>
       </c>
       <c r="L133">
-        <v>37.2536335828923</v>
+        <v>68.57152926788318</v>
       </c>
       <c r="M133">
-        <v>41.36597661937854</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+        <v>62.51032364575757</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.1072711870074272</v>
+        <v>0.1110520437359809</v>
       </c>
       <c r="C134">
-        <v>0.1080987080931663</v>
+        <v>0.111556552350521</v>
       </c>
       <c r="D134">
-        <v>0.1070371270179748</v>
+        <v>0.1108898892998695</v>
       </c>
       <c r="E134">
-        <v>0.1079763919115066</v>
+        <v>0.1109878197312355</v>
       </c>
       <c r="F134">
-        <v>19140080</v>
+        <v>10005168</v>
       </c>
       <c r="G134">
-        <v>0.1089936231304924</v>
+        <v>0.1093365334169872</v>
       </c>
       <c r="H134">
-        <v>0.1086816981434822</v>
+        <v>0.1088051486760378</v>
       </c>
       <c r="I134">
-        <v>0.1103453944126764</v>
+        <v>0.1091184395054976</v>
       </c>
       <c r="L134">
-        <v>43.30877878544956</v>
+        <v>67.39407889220615</v>
       </c>
       <c r="M134">
-        <v>44.92309331420729</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>61.83046989732542</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.1079815179109573</v>
+        <v>0.1109978780150413</v>
       </c>
       <c r="C135">
-        <v>0.1080857664346695</v>
+        <v>0.112366572022438</v>
       </c>
       <c r="D135">
-        <v>0.1069275587797164</v>
+        <v>0.1109233945608139</v>
       </c>
       <c r="E135">
-        <v>0.107299268245697</v>
+        <v>0.1120862066745758</v>
       </c>
       <c r="F135">
-        <v>6256480</v>
+        <v>8753040</v>
       </c>
       <c r="G135">
-        <v>0.1088395908682383</v>
+        <v>0.1095865037131316</v>
       </c>
       <c r="H135">
-        <v>0.1084515418857336</v>
+        <v>0.1089378468692302</v>
       </c>
       <c r="I135">
-        <v>0.1100267849862575</v>
+        <v>0.1091919620831807</v>
       </c>
       <c r="L135">
-        <v>39.27282170954248</v>
+        <v>73.86499499298743</v>
       </c>
       <c r="M135">
-        <v>42.30667077990108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>66.81258482991501</v>
+      </c>
+      <c r="O135" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.1072989851236343</v>
+        <v>0.1120760738849639</v>
       </c>
       <c r="C136">
-        <v>0.1082661971449852</v>
+        <v>0.113700084388256</v>
       </c>
       <c r="D136">
-        <v>0.107286587357521</v>
+        <v>0.1120710745453834</v>
       </c>
       <c r="E136">
-        <v>0.1082342639565467</v>
+        <v>0.1135546565055847</v>
       </c>
       <c r="F136">
-        <v>1156608</v>
+        <v>15854064</v>
       </c>
       <c r="G136">
-        <v>0.1087845611489936</v>
+        <v>0.1099472448760819</v>
       </c>
       <c r="H136">
-        <v>0.1084263779222965</v>
+        <v>0.1091679204255342</v>
       </c>
       <c r="I136">
-        <v>0.1097801034649213</v>
+        <v>0.1092682354152202</v>
       </c>
       <c r="L136">
-        <v>46.95229368233858</v>
+        <v>79.87272652847015</v>
       </c>
       <c r="M136">
-        <v>46.90517637475096</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+        <v>72.06270981797212</v>
+      </c>
+      <c r="O136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.1082416027784347</v>
+        <v>0.1135500743985176</v>
       </c>
       <c r="C137">
-        <v>0.1092024520039558</v>
+        <v>0.1142320856451988</v>
       </c>
       <c r="D137">
-        <v>0.1082416027784347</v>
+        <v>0.1131704598665237</v>
       </c>
       <c r="E137">
-        <v>0.1091797202825546</v>
+        <v>0.1134930625557899</v>
       </c>
       <c r="F137">
-        <v>12155392</v>
+        <v>11505696</v>
       </c>
       <c r="G137">
-        <v>0.10882048470659</v>
+        <v>0.1102695919378735</v>
       </c>
       <c r="H137">
-        <v>0.1084456108510494</v>
+        <v>0.1093846671283245</v>
       </c>
       <c r="I137">
-        <v>0.1096035160124302</v>
+        <v>0.1093591667711735</v>
       </c>
       <c r="L137">
-        <v>53.62385227290245</v>
+        <v>79.01562479834284</v>
       </c>
       <c r="M137">
-        <v>51.14561880908789</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+        <v>71.5514071979029</v>
+      </c>
+      <c r="O137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.1091726943850517</v>
+        <v>0.1134889796376228</v>
       </c>
       <c r="C138">
-        <v>0.1096446141600608</v>
+        <v>0.1150043532252311</v>
       </c>
       <c r="D138">
-        <v>0.1088724881410598</v>
+        <v>0.1134512647986412</v>
       </c>
       <c r="E138">
-        <v>0.1091045141220092</v>
+        <v>0.1147126480937004</v>
       </c>
       <c r="F138">
-        <v>8282624</v>
+        <v>17304320</v>
       </c>
       <c r="G138">
-        <v>0.1088463055625372</v>
+        <v>0.1106735061338578</v>
       </c>
       <c r="H138">
-        <v>0.1084077142179012</v>
+        <v>0.1096550129354</v>
       </c>
       <c r="I138">
-        <v>0.1094359864791234</v>
+        <v>0.1094912218550841</v>
       </c>
       <c r="L138">
-        <v>53.02706065311453</v>
+        <v>83.06392991780078</v>
       </c>
       <c r="M138">
-        <v>50.79808031210408</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+        <v>75.28993198398419</v>
+      </c>
+      <c r="O138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.1090872511267662</v>
+        <v>0.1147136688232421</v>
       </c>
       <c r="C139">
-        <v>0.1096305772662162</v>
+        <v>0.1149957105517387</v>
       </c>
       <c r="D139">
-        <v>0.1079360246658325</v>
+        <v>0.1145693883299827</v>
       </c>
       <c r="E139">
-        <v>0.1096188724040985</v>
+        <v>0.1149685606360435</v>
       </c>
       <c r="F139">
-        <v>9523648</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0.1089165389117701</v>
+        <v>0.1110639656340565</v>
       </c>
       <c r="H139">
-        <v>0.1084323581308126</v>
+        <v>0.10993456505239</v>
       </c>
       <c r="I139">
-        <v>0.1093503423035144</v>
+        <v>0.1096467547118663</v>
       </c>
       <c r="L139">
-        <v>56.7321199686089</v>
+        <v>83.80163082170361</v>
       </c>
       <c r="M139">
-        <v>53.14319535810865</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
+        <v>76.00256874329727</v>
+      </c>
+      <c r="O139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.1096304655075073</v>
+        <v>0.1149682104587555</v>
       </c>
       <c r="C140">
-        <v>0.1103662773966789</v>
+        <v>0.1151804625988006</v>
       </c>
       <c r="D140">
-        <v>0.1096297800540924</v>
+        <v>0.1146079376339912</v>
       </c>
       <c r="E140">
-        <v>0.11036167293787</v>
+        <v>0.1147174164652824</v>
       </c>
       <c r="F140">
-        <v>976736</v>
+        <v>3556192</v>
       </c>
       <c r="G140">
-        <v>0.1090479147323246</v>
+        <v>0.1113960975278043</v>
       </c>
       <c r="H140">
-        <v>0.1085555769503116</v>
+        <v>0.1103272195905447</v>
       </c>
       <c r="I140">
-        <v>0.109324283649524</v>
+        <v>0.1098242476582527</v>
       </c>
       <c r="L140">
-        <v>61.64692816940273</v>
+        <v>79.95654745938128</v>
       </c>
       <c r="M140">
-        <v>56.37682675252332</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
+        <v>73.75455309603369</v>
+      </c>
+      <c r="O140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.1103597581386566</v>
+        <v>0.1147174164652824</v>
       </c>
       <c r="C141">
-        <v>0.1105319112539291</v>
+        <v>0.1148468926548957</v>
       </c>
       <c r="D141">
-        <v>0.1099997386336326</v>
+        <v>0.114415094256401</v>
       </c>
       <c r="E141">
-        <v>0.1104559302330017</v>
+        <v>0.1145206317305564</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>4167840</v>
       </c>
       <c r="G141">
-        <v>0.1091759161414771</v>
+        <v>0.1116801460916909</v>
       </c>
       <c r="H141">
-        <v>0.1086705695837736</v>
+        <v>0.1106947097927332</v>
       </c>
       <c r="I141">
-        <v>0.1092576416830221</v>
+        <v>0.1100120549400647</v>
       </c>
       <c r="L141">
-        <v>62.25892685639028</v>
+        <v>76.84834957704277</v>
       </c>
       <c r="M141">
-        <v>56.78438156437004</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
+        <v>71.95855254918301</v>
+      </c>
+      <c r="O141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.1104486286640167</v>
+        <v>0.1145109832286834</v>
       </c>
       <c r="C142">
-        <v>0.1106418892741203</v>
+        <v>0.1163261383771896</v>
       </c>
       <c r="D142">
-        <v>0.1099296361207962</v>
+        <v>0.1144729629158973</v>
       </c>
       <c r="E142">
-        <v>0.1106374412775039</v>
+        <v>0.1154786869883537</v>
       </c>
       <c r="F142">
-        <v>3529088</v>
+        <v>23555584</v>
       </c>
       <c r="G142">
-        <v>0.109308782062934</v>
+        <v>0.1120254679913875</v>
       </c>
       <c r="H142">
-        <v>0.1087994698435068</v>
+        <v>0.1111372955143451</v>
       </c>
       <c r="I142">
-        <v>0.1091838769614696</v>
+        <v>0.1102555046478907</v>
       </c>
       <c r="L142">
-        <v>63.52001542273842</v>
+        <v>80.91238873898538</v>
       </c>
       <c r="M142">
-        <v>57.60576945293644</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+        <v>75.13336765747383</v>
+      </c>
+      <c r="O142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.1106399297714233</v>
+        <v>0.1154688373208046</v>
       </c>
       <c r="C143">
-        <v>0.1106399297714233</v>
+        <v>0.1154688373208046</v>
       </c>
       <c r="D143">
-        <v>0.109763815999031</v>
+        <v>0.1149012520909309</v>
       </c>
       <c r="E143">
-        <v>0.1101676002144813</v>
+        <v>0.1151277646422386</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>0.1093868564403474</v>
+        <v>0.1123074949596467</v>
       </c>
       <c r="H143">
-        <v>0.1089053884148597</v>
+        <v>0.1115355871617794</v>
       </c>
       <c r="I143">
-        <v>0.1090572454035282</v>
+        <v>0.1104573952654997</v>
       </c>
       <c r="L143">
-        <v>57.88733234465836</v>
+        <v>75.45439002899103</v>
       </c>
       <c r="M143">
-        <v>54.70719406181855</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
+        <v>71.92132828937267</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.1101720631122589</v>
+        <v>0.1151171326637268</v>
       </c>
       <c r="C144">
-        <v>0.1102009788155555</v>
+        <v>0.1152338460087776</v>
       </c>
       <c r="D144">
-        <v>0.1097685769200325</v>
+        <v>0.1146273016929626</v>
       </c>
       <c r="E144">
-        <v>0.110013261437416</v>
+        <v>0.1146556660532951</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>0.1094438023491718</v>
+        <v>0.1125209650590693</v>
       </c>
       <c r="H144">
-        <v>0.1090285047888755</v>
+        <v>0.1119191002100706</v>
       </c>
       <c r="I144">
-        <v>0.1089568835993607</v>
+        <v>0.1106472757955392</v>
       </c>
       <c r="L144">
-        <v>56.05053562385395</v>
+        <v>68.46467956389429</v>
       </c>
       <c r="M144">
-        <v>53.7504203128293</v>
+        <v>67.72651082340984</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -5797,34 +5824,34 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.1100148186087608</v>
+        <v>0.114661231637001</v>
       </c>
       <c r="C145">
-        <v>0.1104824468493461</v>
+        <v>0.1147249266505241</v>
       </c>
       <c r="D145">
-        <v>0.1099497303366661</v>
+        <v>0.1130556836724281</v>
       </c>
       <c r="E145">
-        <v>0.11017407476902</v>
+        <v>0.113354317843914</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>14083712</v>
       </c>
       <c r="G145">
-        <v>0.1095101907509762</v>
+        <v>0.112596724403146</v>
       </c>
       <c r="H145">
-        <v>0.1090781718492508</v>
+        <v>0.1122289761900902</v>
       </c>
       <c r="I145">
-        <v>0.1088992729783058</v>
+        <v>0.1107780116299788</v>
       </c>
       <c r="L145">
-        <v>57.62658753118613</v>
+        <v>53.18601313982936</v>
       </c>
       <c r="M145">
-        <v>54.64057207792433</v>
+        <v>57.73090280166211</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -5832,34 +5859,34 @@
         <v>158</v>
       </c>
       <c r="B146">
-        <v>0.1101744025945663</v>
+        <v>0.1133496016263961</v>
       </c>
       <c r="C146">
-        <v>0.1103945598006248</v>
+        <v>0.1134291589260101</v>
       </c>
       <c r="D146">
-        <v>0.109802708029747</v>
+        <v>0.1123600453138351</v>
       </c>
       <c r="E146">
-        <v>0.1098805293440818</v>
+        <v>0.1126336827874183</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1684928</v>
       </c>
       <c r="G146">
-        <v>0.109543857895804</v>
+        <v>0.1126000842562617</v>
       </c>
       <c r="H146">
-        <v>0.1091747019439935</v>
+        <v>0.1124500785022974</v>
       </c>
       <c r="I146">
-        <v>0.1089373725155989</v>
+        <v>0.1109006948769092</v>
       </c>
       <c r="L146">
-        <v>53.67395604712007</v>
+        <v>46.69432878304467</v>
       </c>
       <c r="M146">
-        <v>52.6486097325398</v>
+        <v>53.06075633784361</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -5867,34 +5894,34 @@
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.1099039167165756</v>
+        <v>0.112635351717472</v>
       </c>
       <c r="C147">
-        <v>0.1114632338285446</v>
+        <v>0.112635351717472</v>
       </c>
       <c r="D147">
-        <v>0.1096568703651428</v>
+        <v>0.1122075319290161</v>
       </c>
       <c r="E147">
-        <v>0.1112664565443992</v>
+        <v>0.112457625567913</v>
       </c>
       <c r="F147">
-        <v>16260784</v>
+        <v>1468208</v>
       </c>
       <c r="G147">
-        <v>0.109700457772949</v>
+        <v>0.1125871334664118</v>
       </c>
       <c r="H147">
-        <v>0.109335733950138</v>
+        <v>0.1126448146998882</v>
       </c>
       <c r="I147">
-        <v>0.1090197523434956</v>
+        <v>0.1110106781125068</v>
       </c>
       <c r="L147">
-        <v>66.04454970700256</v>
+        <v>45.17872761939326</v>
       </c>
       <c r="M147">
-        <v>60.05315161245928</v>
+        <v>51.95496708997351</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -5902,34 +5929,34 @@
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.1112807467579841</v>
+        <v>0.1124593093991279</v>
       </c>
       <c r="C148">
-        <v>0.1114538386464119</v>
+        <v>0.113210842013359</v>
       </c>
       <c r="D148">
-        <v>0.1106646880507469</v>
+        <v>0.1118850708007812</v>
       </c>
       <c r="E148">
-        <v>0.1107651218771934</v>
+        <v>0.113210842013359</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>635552</v>
       </c>
       <c r="G148">
-        <v>0.1097972454187894</v>
+        <v>0.112643834243407</v>
       </c>
       <c r="H148">
-        <v>0.1094583816826343</v>
+        <v>0.1128873977810144</v>
       </c>
       <c r="I148">
-        <v>0.1090498415132363</v>
+        <v>0.1111408484478791</v>
       </c>
       <c r="L148">
-        <v>59.57103265129754</v>
+        <v>52.58581636324967</v>
       </c>
       <c r="M148">
-        <v>56.60495582467597</v>
+        <v>56.16398374457301</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -5937,34 +5964,34 @@
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.1107652261853218</v>
+        <v>0.1132031008601188</v>
       </c>
       <c r="C149">
-        <v>0.1108265072107315</v>
+        <v>0.1134577319025993</v>
       </c>
       <c r="D149">
-        <v>0.1106362044811248</v>
+        <v>0.1128272116184234</v>
       </c>
       <c r="E149">
-        <v>0.1107509955763816</v>
+        <v>0.1128621697425842</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1964720</v>
       </c>
       <c r="G149">
-        <v>0.1098839499785705</v>
+        <v>0.1126636829251504</v>
       </c>
       <c r="H149">
-        <v>0.1095745395869016</v>
+        <v>0.1130947105586528</v>
       </c>
       <c r="I149">
-        <v>0.1091040082275867</v>
+        <v>0.1112570034960905</v>
       </c>
       <c r="L149">
-        <v>59.38651225924838</v>
+        <v>49.12892421517159</v>
       </c>
       <c r="M149">
-        <v>56.50650033879992</v>
+        <v>53.8137673799759</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -5972,34 +5999,34 @@
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.1107512041926384</v>
+        <v>0.1128606051206588</v>
       </c>
       <c r="C150">
-        <v>0.1109152883291244</v>
+        <v>0.1132813170552253</v>
       </c>
       <c r="D150">
-        <v>0.1102272942662239</v>
+        <v>0.112211525440216</v>
       </c>
       <c r="E150">
-        <v>0.1103025749325752</v>
+        <v>0.1123163625597953</v>
       </c>
       <c r="F150">
-        <v>1714896</v>
+        <v>9305424</v>
       </c>
       <c r="G150">
-        <v>0.1099220067925709</v>
+        <v>0.1126321083464817</v>
       </c>
       <c r="H150">
-        <v>0.1096139676868915</v>
+        <v>0.1132198818027973</v>
       </c>
       <c r="I150">
-        <v>0.1091841841737429</v>
+        <v>0.1114387380580107</v>
       </c>
       <c r="L150">
-        <v>53.47167623877362</v>
+        <v>44.03145506569738</v>
       </c>
       <c r="M150">
-        <v>53.33517347011313</v>
+        <v>50.26771150275371</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6007,37 +6034,37 @@
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.1102981865406036</v>
+        <v>0.1123115718364715</v>
       </c>
       <c r="C151">
-        <v>0.1102988347411155</v>
+        <v>0.1123115718364715</v>
       </c>
       <c r="D151">
-        <v>0.1092777848243713</v>
+        <v>0.1116633564233779</v>
       </c>
       <c r="E151">
-        <v>0.1093926280736923</v>
+        <v>0.1121838241815567</v>
       </c>
       <c r="F151">
-        <v>12568224</v>
+        <v>4046848</v>
       </c>
       <c r="G151">
-        <v>0.109873881454491</v>
+        <v>0.1125913552405794</v>
       </c>
       <c r="H151">
-        <v>0.1096217162907123</v>
+        <v>0.1132988754659891</v>
       </c>
       <c r="I151">
-        <v>0.1092254025240739</v>
+        <v>0.1116058379411697</v>
       </c>
       <c r="J151">
-        <v>0.1073757730424404</v>
+        <v>0.108450372715791</v>
       </c>
       <c r="L151">
-        <v>43.565973954738</v>
+        <v>42.817796315215</v>
       </c>
       <c r="M151">
-        <v>47.50840021136103</v>
+        <v>49.41616512465149</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6045,37 +6072,37 @@
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.1093922555446624</v>
+        <v>0.1121827065944671</v>
       </c>
       <c r="C152">
-        <v>0.1096006482839584</v>
+        <v>0.1124243736267089</v>
       </c>
       <c r="D152">
-        <v>0.1088864132761955</v>
+        <v>0.1120209470391273</v>
       </c>
       <c r="E152">
-        <v>0.1088864132761955</v>
+        <v>0.1121009141206741</v>
       </c>
       <c r="F152">
-        <v>5620976</v>
+        <v>4648784</v>
       </c>
       <c r="G152">
-        <v>0.1097841116201005</v>
+        <v>0.1125467696842244</v>
       </c>
       <c r="H152">
-        <v>0.1095864400267601</v>
+        <v>0.1133248187601566</v>
       </c>
       <c r="I152">
-        <v>0.109252968430519</v>
+        <v>0.1117883026599884</v>
       </c>
       <c r="J152">
-        <v>0.1073957815223577</v>
+        <v>0.1084987242575775</v>
       </c>
       <c r="L152">
-        <v>39.03971460377436</v>
+        <v>42.00303144799756</v>
       </c>
       <c r="M152">
-        <v>44.58993364840591</v>
+        <v>48.85858111824405</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6083,37 +6110,37 @@
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.1088818982243537</v>
+        <v>0.1121065840125083</v>
       </c>
       <c r="C153">
-        <v>0.1089661568403244</v>
+        <v>0.1122607216238975</v>
       </c>
       <c r="D153">
-        <v>0.108075700700283</v>
+        <v>0.1119330525398254</v>
       </c>
       <c r="E153">
-        <v>0.1081751957535743</v>
+        <v>0.1122032776474952</v>
       </c>
       <c r="F153">
-        <v>4960896</v>
+        <v>2393504</v>
       </c>
       <c r="G153">
-        <v>0.1096378465413254</v>
+        <v>0.1125155431354309</v>
       </c>
       <c r="H153">
-        <v>0.1096321463584899</v>
+        <v>0.1133813068270683</v>
       </c>
       <c r="I153">
-        <v>0.1092571673293908</v>
+        <v>0.1119563475251198</v>
       </c>
       <c r="J153">
-        <v>0.1074061048896585</v>
+        <v>0.1085477911898943</v>
       </c>
       <c r="L153">
-        <v>33.53308732588335</v>
+        <v>43.49642555541361</v>
       </c>
       <c r="M153">
-        <v>40.79788212383731</v>
+        <v>49.61449028991731</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6121,37 +6148,37 @@
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.1081929132342338</v>
+        <v>0.1122031882405281</v>
       </c>
       <c r="C154">
-        <v>0.1090825051069259</v>
+        <v>0.1131009086966514</v>
       </c>
       <c r="D154">
-        <v>0.1081269830465316</v>
+        <v>0.1120742037892341</v>
       </c>
       <c r="E154">
-        <v>0.1090710461139679</v>
+        <v>0.1130054369568824</v>
       </c>
       <c r="F154">
-        <v>10447696</v>
+        <v>2604144</v>
       </c>
       <c r="G154">
-        <v>0.1095863192297474</v>
+        <v>0.112560078937381</v>
       </c>
       <c r="H154">
-        <v>0.109686879068613</v>
+        <v>0.1134821876883506</v>
       </c>
       <c r="I154">
-        <v>0.1093078377346197</v>
+        <v>0.1121570152541001</v>
       </c>
       <c r="J154">
-        <v>0.107428157091305</v>
+        <v>0.1086068328556823</v>
       </c>
       <c r="L154">
-        <v>44.60526580036666</v>
+        <v>53.95003663299249</v>
       </c>
       <c r="M154">
-        <v>46.92106603300336</v>
+        <v>55.20242608276415</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6159,37 +6186,37 @@
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.10906782746315</v>
+        <v>0.1130022630095481</v>
       </c>
       <c r="C155">
-        <v>0.10906782746315</v>
+        <v>0.1133493781089782</v>
       </c>
       <c r="D155">
-        <v>0.1080181449651718</v>
+        <v>0.112945519387722</v>
       </c>
       <c r="E155">
-        <v>0.108959250152111</v>
+        <v>0.1132771223783493</v>
       </c>
       <c r="F155">
-        <v>27401712</v>
+        <v>1279648</v>
       </c>
       <c r="G155">
-        <v>0.1095293129499623</v>
+        <v>0.1126252647047417</v>
       </c>
       <c r="H155">
-        <v>0.1097698781639337</v>
+        <v>0.1135417334735393</v>
       </c>
       <c r="I155">
-        <v>0.1093004549543062</v>
+        <v>0.1123610260585943</v>
       </c>
       <c r="J155">
-        <v>0.1074484364695938</v>
+        <v>0.1086686909950553</v>
       </c>
       <c r="L155">
-        <v>43.58593051123382</v>
+        <v>56.98248858220792</v>
       </c>
       <c r="M155">
-        <v>46.27780369146467</v>
+        <v>56.94410757392334</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6197,37 +6224,37 @@
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.1089407876133918</v>
+        <v>0.1132772639393806</v>
       </c>
       <c r="C156">
-        <v>0.1094690710306167</v>
+        <v>0.1138512343168258</v>
       </c>
       <c r="D156">
-        <v>0.1088843345642089</v>
+        <v>0.1132760047912597</v>
       </c>
       <c r="E156">
-        <v>0.1094322428107261</v>
+        <v>0.1135478392243385</v>
       </c>
       <c r="F156">
-        <v>22187248</v>
+        <v>6145008</v>
       </c>
       <c r="G156">
-        <v>0.1095204883918499</v>
+        <v>0.1127091351156142</v>
       </c>
       <c r="H156">
-        <v>0.1098297771066427</v>
+        <v>0.113541392609477</v>
       </c>
       <c r="I156">
-        <v>0.1093498654663562</v>
+        <v>0.1125388994812965</v>
       </c>
       <c r="J156">
-        <v>0.1074747120502711</v>
+        <v>0.1087333154749134</v>
       </c>
       <c r="L156">
-        <v>49.12016352193498</v>
+        <v>59.93968687980273</v>
       </c>
       <c r="M156">
-        <v>49.4362431555128</v>
+        <v>58.66847306089598</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6235,37 +6262,37 @@
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.109444186091423</v>
+        <v>0.1135487779974937</v>
       </c>
       <c r="C157">
-        <v>0.1095954999327659</v>
+        <v>0.1142224445939064</v>
       </c>
       <c r="D157">
-        <v>0.1086273416876792</v>
+        <v>0.1124057844281196</v>
       </c>
       <c r="E157">
-        <v>0.1089531853795051</v>
+        <v>0.1142224445939064</v>
       </c>
       <c r="F157">
-        <v>15579792</v>
+        <v>31376640</v>
       </c>
       <c r="G157">
-        <v>0.1094689153907277</v>
+        <v>0.1128467087045498</v>
       </c>
       <c r="H157">
-        <v>0.1098184503614902</v>
+        <v>0.1135778617113828</v>
       </c>
       <c r="I157">
-        <v>0.1093801110982894</v>
+        <v>0.1127275509138902</v>
       </c>
       <c r="J157">
-        <v>0.1074942944784729</v>
+        <v>0.1088060191718537</v>
       </c>
       <c r="L157">
-        <v>44.18163569224789</v>
+        <v>66.41258510273131</v>
       </c>
       <c r="M157">
-        <v>46.45711684901065</v>
+        <v>62.67956502078771</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6273,37 +6300,37 @@
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.1089695394039154</v>
+        <v>0.1142265871167182</v>
       </c>
       <c r="C158">
-        <v>0.1097123548388481</v>
+        <v>0.1142508685588836</v>
       </c>
       <c r="D158">
-        <v>0.1089695394039154</v>
+        <v>0.1126106902956962</v>
       </c>
       <c r="E158">
-        <v>0.1091581284999847</v>
+        <v>0.1129995211958885</v>
       </c>
       <c r="F158">
-        <v>10257728</v>
+        <v>27519168</v>
       </c>
       <c r="G158">
-        <v>0.1094406620370237</v>
+        <v>0.112860600749217</v>
       </c>
       <c r="H158">
-        <v>0.109821131080389</v>
+        <v>0.1134922053664922</v>
       </c>
       <c r="I158">
-        <v>0.10940830980738</v>
+        <v>0.1128822289407253</v>
       </c>
       <c r="J158">
-        <v>0.1075163320151817</v>
+        <v>0.1088615622450197</v>
       </c>
       <c r="L158">
-        <v>46.7579042277068</v>
+        <v>49.95217004856329</v>
       </c>
       <c r="M158">
-        <v>47.90349707160605</v>
+        <v>52.69585867128277</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6311,37 +6338,37 @@
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.1091677397489547</v>
+        <v>0.1129979118704795</v>
       </c>
       <c r="C159">
-        <v>0.1096419394016265</v>
+        <v>0.1133005544543266</v>
       </c>
       <c r="D159">
-        <v>0.1091677397489547</v>
+        <v>0.1129422783851623</v>
       </c>
       <c r="E159">
-        <v>0.1093057319521904</v>
+        <v>0.1130562499165535</v>
       </c>
       <c r="F159">
-        <v>4723520</v>
+        <v>2543296</v>
       </c>
       <c r="G159">
-        <v>0.1094283956656753</v>
+        <v>0.1128783870371567</v>
       </c>
       <c r="H159">
-        <v>0.1098054740577936</v>
+        <v>0.1133965898305177</v>
       </c>
       <c r="I159">
-        <v>0.1094375729560852</v>
+        <v>0.1130269067982832</v>
       </c>
       <c r="J159">
-        <v>0.107540032676599</v>
+        <v>0.1089171210221262</v>
       </c>
       <c r="L159">
-        <v>48.67719212696248</v>
+        <v>50.59124321178128</v>
       </c>
       <c r="M159">
-        <v>48.97263013210264</v>
+        <v>53.06929052711933</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -6349,37 +6376,37 @@
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.1093111634254455</v>
+        <v>0.1130491495132446</v>
       </c>
       <c r="C160">
-        <v>0.10980124771595</v>
+        <v>0.1130831837654113</v>
       </c>
       <c r="D160">
-        <v>0.1093111634254455</v>
+        <v>0.1120274290442466</v>
       </c>
       <c r="E160">
-        <v>0.1093775182962417</v>
+        <v>0.1124672815203666</v>
       </c>
       <c r="F160">
-        <v>9916896</v>
+        <v>10610320</v>
       </c>
       <c r="G160">
-        <v>0.1094237704502722</v>
+        <v>0.1128410138083576</v>
       </c>
       <c r="H160">
-        <v>0.1097562663257122</v>
+        <v>0.113284083083272</v>
       </c>
       <c r="I160">
-        <v>0.1094330231348673</v>
+        <v>0.1131153849263986</v>
       </c>
       <c r="J160">
-        <v>0.1075643702344751</v>
+        <v>0.1089641430154803</v>
       </c>
       <c r="L160">
-        <v>49.66987568673012</v>
+        <v>44.02514139578996</v>
       </c>
       <c r="M160">
-        <v>49.51527189362366</v>
+        <v>48.76506797628456</v>
       </c>
     </row>
     <row r="161" spans="1:15">
@@ -6387,40 +6414,37 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.1093955934047699</v>
+        <v>0.1124840825796127</v>
       </c>
       <c r="C161">
-        <v>0.1094036400318145</v>
+        <v>0.1125797927379608</v>
       </c>
       <c r="D161">
-        <v>0.106778047978878</v>
+        <v>0.1118074506521225</v>
       </c>
       <c r="E161">
-        <v>0.1068643257021904</v>
+        <v>0.1121302545070648</v>
       </c>
       <c r="F161">
-        <v>35959040</v>
+        <v>3988768</v>
       </c>
       <c r="G161">
-        <v>0.109191093654992</v>
+        <v>0.1127763993264219</v>
       </c>
       <c r="H161">
-        <v>0.1095766860991716</v>
+        <v>0.1131645642220974</v>
       </c>
       <c r="I161">
-        <v>0.1093539121250311</v>
+        <v>0.11316626171271</v>
       </c>
       <c r="J161">
-        <v>0.1075550981214647</v>
+        <v>0.1090060782670245</v>
       </c>
       <c r="L161">
-        <v>28.19280164858568</v>
+        <v>40.63038625376998</v>
       </c>
       <c r="M161">
-        <v>35.34433734221268</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
+        <v>46.443742442078</v>
       </c>
     </row>
     <row r="162" spans="1:15">
@@ -6428,37 +6452,37 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.1068838387727737</v>
+        <v>0.1121304705739021</v>
       </c>
       <c r="C162">
-        <v>0.1073561161756515</v>
+        <v>0.112666368484497</v>
       </c>
       <c r="D162">
-        <v>0.1061076521873474</v>
+        <v>0.1120246574282646</v>
       </c>
       <c r="E162">
-        <v>0.1071708276867866</v>
+        <v>0.112666368484497</v>
       </c>
       <c r="F162">
-        <v>14018432</v>
+        <v>2200496</v>
       </c>
       <c r="G162">
-        <v>0.1090074331124279</v>
+        <v>0.1127663965226105</v>
       </c>
       <c r="H162">
-        <v>0.1094033554196357</v>
+        <v>0.1130239482969045</v>
       </c>
       <c r="I162">
-        <v>0.109273208429416</v>
+        <v>0.1132024057209491</v>
       </c>
       <c r="J162">
-        <v>0.1075500084468332</v>
+        <v>0.1090545589321566</v>
       </c>
       <c r="L162">
-        <v>32.21423246182545</v>
+        <v>47.82947960371577</v>
       </c>
       <c r="M162">
-        <v>37.68658638578145</v>
+        <v>50.48177129538934</v>
       </c>
     </row>
     <row r="163" spans="1:15">
@@ -6466,40 +6490,37 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.1071930602192878</v>
+        <v>0.1126570031046867</v>
       </c>
       <c r="C163">
-        <v>0.1072027087211608</v>
+        <v>0.1126570031046867</v>
       </c>
       <c r="D163">
-        <v>0.1064241752028465</v>
+        <v>0.1118110418319702</v>
       </c>
       <c r="E163">
-        <v>0.1066269725561142</v>
+        <v>0.112151987850666</v>
       </c>
       <c r="F163">
-        <v>3006848</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0.1087910276073085</v>
+        <v>0.1127105411887974</v>
       </c>
       <c r="H163">
-        <v>0.1092263240367174</v>
+        <v>0.1128751594573259</v>
       </c>
       <c r="I163">
-        <v>0.1092520718773206</v>
+        <v>0.1132383547723293</v>
       </c>
       <c r="J163">
-        <v>0.1075377828058965</v>
+        <v>0.1090955844807461</v>
       </c>
       <c r="L163">
-        <v>28.97502409147463</v>
+        <v>42.29380738862869</v>
       </c>
       <c r="M163">
-        <v>35.246647540842</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
+        <v>46.83318164650656</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -6507,37 +6528,37 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.1066273301839828</v>
+        <v>0.1121641919016838</v>
       </c>
       <c r="C164">
-        <v>0.1071619316935539</v>
+        <v>0.1125629842281341</v>
       </c>
       <c r="D164">
-        <v>0.1063800081610679</v>
+        <v>0.112146072089672</v>
       </c>
       <c r="E164">
-        <v>0.1071619316935539</v>
+        <v>0.1125067323446273</v>
       </c>
       <c r="F164">
-        <v>2898880</v>
+        <v>116928</v>
       </c>
       <c r="G164">
-        <v>0.1086429279787854</v>
+        <v>0.1126920131120546</v>
       </c>
       <c r="H164">
-        <v>0.1090837575495243</v>
+        <v>0.1127677127718925</v>
       </c>
       <c r="I164">
-        <v>0.1092249232033888</v>
+        <v>0.1132889851927757</v>
       </c>
       <c r="J164">
-        <v>0.1075328046454681</v>
+        <v>0.1091407652471551</v>
       </c>
       <c r="L164">
-        <v>36.08670420113462</v>
+        <v>47.04864174299517</v>
       </c>
       <c r="M164">
-        <v>39.40257871396827</v>
+        <v>49.54174146809887</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -6545,37 +6566,37 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.1071579456329345</v>
+        <v>0.1125086694955825</v>
       </c>
       <c r="C165">
-        <v>0.1075076386332511</v>
+        <v>0.1125493571162223</v>
       </c>
       <c r="D165">
-        <v>0.1068784371018409</v>
+        <v>0.1120413243770599</v>
       </c>
       <c r="E165">
-        <v>0.106985405087471</v>
+        <v>0.1120521426200866</v>
       </c>
       <c r="F165">
-        <v>4294720</v>
+        <v>4478048</v>
       </c>
       <c r="G165">
-        <v>0.108492244079575</v>
+        <v>0.1126338430673302</v>
       </c>
       <c r="H165">
-        <v>0.1089243240654468</v>
+        <v>0.1127026040107011</v>
       </c>
       <c r="I165">
-        <v>0.1092144610981146</v>
+        <v>0.1132878497242927</v>
       </c>
       <c r="J165">
-        <v>0.1075255543201967</v>
+        <v>0.1091793265368629</v>
       </c>
       <c r="L165">
-        <v>34.79340176881408</v>
+        <v>42.05325557198744</v>
       </c>
       <c r="M165">
-        <v>38.52393862255328</v>
+        <v>46.28749758422565</v>
       </c>
     </row>
     <row r="166" spans="1:15">
@@ -6583,37 +6604,37 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.1069811359047889</v>
+        <v>0.1120462268590927</v>
       </c>
       <c r="C166">
-        <v>0.1072819158434867</v>
+        <v>0.1121588721871376</v>
       </c>
       <c r="D166">
-        <v>0.1069777458906173</v>
+        <v>0.1114657148718833</v>
       </c>
       <c r="E166">
-        <v>0.1071567982435226</v>
+        <v>0.1120880916714668</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>898224</v>
       </c>
       <c r="G166">
-        <v>0.1083708399126611</v>
+        <v>0.1125842293040699</v>
       </c>
       <c r="H166">
-        <v>0.1087881375104189</v>
+        <v>0.1126753244549036</v>
       </c>
       <c r="I166">
-        <v>0.1091785455743471</v>
+        <v>0.1132389642298221</v>
       </c>
       <c r="J166">
-        <v>0.1075206701337506</v>
+        <v>0.1092178532273874</v>
       </c>
       <c r="L166">
-        <v>37.24982743239709</v>
+        <v>42.59549153977769</v>
       </c>
       <c r="M166">
-        <v>39.92465634064292</v>
+        <v>46.58629992507235</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -6621,37 +6642,37 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.1071585118770599</v>
+        <v>0.1120917201042175</v>
       </c>
       <c r="C167">
-        <v>0.1084749996662139</v>
+        <v>0.1131235435605049</v>
       </c>
       <c r="D167">
-        <v>0.1071510687470436</v>
+        <v>0.1120917201042175</v>
       </c>
       <c r="E167">
-        <v>0.1082116365432739</v>
+        <v>0.1131235435605049</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>11040288</v>
       </c>
       <c r="G167">
-        <v>0.1083563668790805</v>
+        <v>0.1126332578728367</v>
       </c>
       <c r="H167">
-        <v>0.1086353965103626</v>
+        <v>0.1127086203545331</v>
       </c>
       <c r="I167">
-        <v>0.1091462761163711</v>
+        <v>0.1132266469299793</v>
       </c>
       <c r="J167">
-        <v>0.1075298220067245</v>
+        <v>0.1092695842251771</v>
       </c>
       <c r="L167">
-        <v>50.23104764574278</v>
+        <v>55.95170604482793</v>
       </c>
       <c r="M167">
-        <v>47.80666223005151</v>
+        <v>54.44686941446617</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -6659,37 +6680,37 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.1082148998975753</v>
+        <v>0.113124594092369</v>
       </c>
       <c r="C168">
-        <v>0.1086690127849578</v>
+        <v>0.113454557955265</v>
       </c>
       <c r="D168">
-        <v>0.1082148998975753</v>
+        <v>0.1124276891350746</v>
       </c>
       <c r="E168">
-        <v>0.1085629016160965</v>
+        <v>0.1125410571694374</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>27605216</v>
       </c>
       <c r="G168">
-        <v>0.1083751427642637</v>
+        <v>0.1126248759907095</v>
       </c>
       <c r="H168">
-        <v>0.1085252854973077</v>
+        <v>0.1126751311123371</v>
       </c>
       <c r="I168">
-        <v>0.109128222366174</v>
+        <v>0.1131542605658372</v>
       </c>
       <c r="J168">
-        <v>0.1075435051803585</v>
+        <v>0.1093129149926507</v>
       </c>
       <c r="L168">
-        <v>53.81072083378278</v>
+        <v>48.77041951807676</v>
       </c>
       <c r="M168">
-        <v>50.15208558827624</v>
+        <v>49.9900460098987</v>
       </c>
     </row>
     <row r="169" spans="1:15">
@@ -6697,37 +6718,37 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.1085663139820098</v>
+        <v>0.1125376224517822</v>
       </c>
       <c r="C169">
-        <v>0.1087582185864448</v>
+        <v>0.1129448935389518</v>
       </c>
       <c r="D169">
-        <v>0.1081984788179397</v>
+        <v>0.1119716092944145</v>
       </c>
       <c r="E169">
-        <v>0.1083591803908348</v>
+        <v>0.1127470061182975</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>19423088</v>
       </c>
       <c r="G169">
-        <v>0.1083736916394065</v>
+        <v>0.1126359787295812</v>
       </c>
       <c r="H169">
-        <v>0.1084056947380304</v>
+        <v>0.1126693729311228</v>
       </c>
       <c r="I169">
-        <v>0.1090862326323986</v>
+        <v>0.113080208748579</v>
       </c>
       <c r="J169">
-        <v>0.1075543088255304</v>
+        <v>0.1093583996433215</v>
       </c>
       <c r="L169">
-        <v>51.39864804774453</v>
+        <v>51.25877095363422</v>
       </c>
       <c r="M169">
-        <v>48.7829077765152</v>
+        <v>51.50164975031054</v>
       </c>
     </row>
     <row r="170" spans="1:15">
@@ -6735,37 +6756,37 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.1083502396941185</v>
+        <v>0.1127517968416214</v>
       </c>
       <c r="C170">
-        <v>0.1087635606527328</v>
+        <v>0.1134509742259979</v>
       </c>
       <c r="D170">
-        <v>0.1082696989178657</v>
+        <v>0.1124810054898262</v>
       </c>
       <c r="E170">
-        <v>0.1087159141898155</v>
+        <v>0.1130398586392402</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>19000544</v>
       </c>
       <c r="G170">
-        <v>0.1084048027803528</v>
+        <v>0.1126726950850047</v>
       </c>
       <c r="H170">
-        <v>0.1083263617008924</v>
+        <v>0.112705547735095</v>
       </c>
       <c r="I170">
-        <v>0.1090313740074634</v>
+        <v>0.1130242901543776</v>
       </c>
       <c r="J170">
-        <v>0.1075696943270441</v>
+        <v>0.1094071606896251</v>
       </c>
       <c r="L170">
-        <v>55.342132071862</v>
+        <v>54.77300408416028</v>
       </c>
       <c r="M170">
-        <v>51.29061133450743</v>
+        <v>53.64716627035924</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -6773,37 +6794,37 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>0.1087209060788154</v>
+        <v>0.1130314245820045</v>
       </c>
       <c r="C171">
-        <v>0.1098484024405479</v>
+        <v>0.1130445897579193</v>
       </c>
       <c r="D171">
-        <v>0.1086786240339279</v>
+        <v>0.1121298000216484</v>
       </c>
       <c r="E171">
-        <v>0.1098129376769065</v>
+        <v>0.1122452616691589</v>
       </c>
       <c r="F171">
-        <v>8734032</v>
+        <v>17028864</v>
       </c>
       <c r="G171">
-        <v>0.1085328150436759</v>
+        <v>0.112633837501746</v>
       </c>
       <c r="H171">
-        <v>0.1083473771810531</v>
+        <v>0.1127086196094751</v>
       </c>
       <c r="I171">
-        <v>0.1090099409222602</v>
+        <v>0.1129484444856643</v>
       </c>
       <c r="J171">
-        <v>0.1075994061594926</v>
+        <v>0.1094447514310759</v>
       </c>
       <c r="L171">
-        <v>65.13034794300832</v>
+        <v>44.89288705735297</v>
       </c>
       <c r="M171">
-        <v>58.08684068311506</v>
+        <v>47.50618623633489</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -6811,40 +6832,37 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>0.1098124980926513</v>
+        <v>0.1122386530041694</v>
       </c>
       <c r="C172">
-        <v>0.1106874123215675</v>
+        <v>0.1128829941153526</v>
       </c>
       <c r="D172">
-        <v>0.1095825210213661</v>
+        <v>0.1117498576641082</v>
       </c>
       <c r="E172">
-        <v>0.1106039509177208</v>
+        <v>0.1125609427690506</v>
       </c>
       <c r="F172">
-        <v>9744896</v>
+        <v>17233184</v>
       </c>
       <c r="G172">
-        <v>0.1087211001231345</v>
+        <v>0.1126272107078646</v>
       </c>
       <c r="H172">
-        <v>0.1084332540631294</v>
+        <v>0.1127316210418939</v>
       </c>
       <c r="I172">
-        <v>0.1090088245769341</v>
+        <v>0.1128511863450209</v>
       </c>
       <c r="J172">
-        <v>0.1076392014543036</v>
+        <v>0.1094860254885325</v>
       </c>
       <c r="L172">
-        <v>70.39419001674784</v>
+        <v>49.00423154070697</v>
       </c>
       <c r="M172">
-        <v>62.18400507110625</v>
-      </c>
-      <c r="O172" t="s">
-        <v>195</v>
+        <v>49.95705533007765</v>
       </c>
     </row>
     <row r="173" spans="1:15">
@@ -6852,40 +6870,37 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.1106269508600235</v>
+        <v>0.112563744187355</v>
       </c>
       <c r="C173">
-        <v>0.1117132157087326</v>
+        <v>0.1130732148885726</v>
       </c>
       <c r="D173">
-        <v>0.1106269508600235</v>
+        <v>0.1123805493116378</v>
       </c>
       <c r="E173">
-        <v>0.1115820482373237</v>
+        <v>0.1130732148885726</v>
       </c>
       <c r="F173">
-        <v>3503072</v>
+        <v>930752</v>
       </c>
       <c r="G173">
-        <v>0.1089811863153335</v>
+        <v>0.1126677565424744</v>
       </c>
       <c r="H173">
-        <v>0.1086035966873169</v>
+        <v>0.1127751179039478</v>
       </c>
       <c r="I173">
-        <v>0.1090559728443622</v>
+        <v>0.112782701353232</v>
       </c>
       <c r="J173">
-        <v>0.1076914245905026</v>
+        <v>0.1095335379309171</v>
       </c>
       <c r="L173">
-        <v>75.53225918681069</v>
+        <v>55.11730724688761</v>
       </c>
       <c r="M173">
-        <v>66.53959675963557</v>
-      </c>
-      <c r="O173" t="s">
-        <v>195</v>
+        <v>53.73215227613069</v>
       </c>
     </row>
     <row r="174" spans="1:15">
@@ -6893,37 +6908,37 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.1115801632404327</v>
+        <v>0.1130665391683578</v>
       </c>
       <c r="C174">
-        <v>0.1119009926915168</v>
+        <v>0.1135823801159858</v>
       </c>
       <c r="D174">
-        <v>0.1109485924243927</v>
+        <v>0.112844131886959</v>
       </c>
       <c r="E174">
-        <v>0.1110735163092613</v>
+        <v>0.1133187189698219</v>
       </c>
       <c r="F174">
-        <v>13272496</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.1091713981329633</v>
+        <v>0.1127269349449605</v>
       </c>
       <c r="H174">
-        <v>0.1087037201970815</v>
+        <v>0.1127907820045948</v>
       </c>
       <c r="I174">
-        <v>0.1090913146734237</v>
+        <v>0.1127381364504496</v>
       </c>
       <c r="J174">
-        <v>0.1077362205073073</v>
+        <v>0.1095836727791145</v>
       </c>
       <c r="L174">
-        <v>68.57151864616294</v>
+        <v>57.84199183946</v>
       </c>
       <c r="M174">
-        <v>62.50842741939155</v>
+        <v>55.46603336970342</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -6931,37 +6946,40 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.1110520437359809</v>
+        <v>0.1133157238364219</v>
       </c>
       <c r="C175">
-        <v>0.111556552350521</v>
+        <v>0.1149527579545974</v>
       </c>
       <c r="D175">
-        <v>0.1108898892998695</v>
+        <v>0.1132967844605445</v>
       </c>
       <c r="E175">
-        <v>0.1109878197312355</v>
+        <v>0.1148109957575798</v>
       </c>
       <c r="F175">
-        <v>10005168</v>
+        <v>15721824</v>
       </c>
       <c r="G175">
-        <v>0.1093365273691699</v>
+        <v>0.112916395018835</v>
       </c>
       <c r="H175">
-        <v>0.1088051486760378</v>
+        <v>0.1128674756735563</v>
       </c>
       <c r="I175">
-        <v>0.1091184395054976</v>
+        <v>0.1127866923809051</v>
       </c>
       <c r="J175">
-        <v>0.1077792880466971</v>
+        <v>0.1096529088450545</v>
       </c>
       <c r="L175">
-        <v>67.39406877768158</v>
+        <v>70.20901922194956</v>
       </c>
       <c r="M175">
-        <v>61.82864404572654</v>
+        <v>64.23865192404935</v>
+      </c>
+      <c r="O175" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:15">
@@ -6969,37 +6987,37 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.1109978780150413</v>
+        <v>0.1147959679365158</v>
       </c>
       <c r="C176">
-        <v>0.112366572022438</v>
+        <v>0.1154168173670768</v>
       </c>
       <c r="D176">
-        <v>0.1109233945608139</v>
+        <v>0.1147692799568176</v>
       </c>
       <c r="E176">
-        <v>0.1120862066745758</v>
+        <v>0.1152935549616813</v>
       </c>
       <c r="F176">
-        <v>8753040</v>
+        <v>4697344</v>
       </c>
       <c r="G176">
-        <v>0.1095864982151159</v>
+        <v>0.1131325004681847</v>
       </c>
       <c r="H176">
-        <v>0.1089378468692302</v>
+        <v>0.1129547614604234</v>
       </c>
       <c r="I176">
-        <v>0.1091919620831807</v>
+        <v>0.1128753547867139</v>
       </c>
       <c r="J176">
-        <v>0.1078363333265366</v>
+        <v>0.1097276193896456</v>
       </c>
       <c r="L176">
-        <v>73.86498545497982</v>
+        <v>73.08169546804869</v>
       </c>
       <c r="M176">
-        <v>66.81068026919002</v>
+        <v>66.53439088200422</v>
       </c>
       <c r="O176" t="s">
         <v>195</v>
@@ -7010,37 +7028,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.1120760738849639</v>
+        <v>0.1152918264269828</v>
       </c>
       <c r="C177">
-        <v>0.113700084388256</v>
+        <v>0.1157821267843246</v>
       </c>
       <c r="D177">
-        <v>0.1120710745453834</v>
+        <v>0.1152728050947189</v>
       </c>
       <c r="E177">
-        <v>0.1135546565055847</v>
+        <v>0.1155359148979187</v>
       </c>
       <c r="F177">
-        <v>15854064</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>0.1099472398778858</v>
+        <v>0.1133509926890696</v>
       </c>
       <c r="H177">
-        <v>0.1091679204255342</v>
+        <v>0.113020434975624</v>
       </c>
       <c r="I177">
-        <v>0.1092682354152202</v>
+        <v>0.1129779644310474</v>
       </c>
       <c r="J177">
-        <v>0.1079120727063915</v>
+        <v>0.1098045504559803</v>
       </c>
       <c r="L177">
-        <v>79.87271815997205</v>
+        <v>74.47252070669383</v>
       </c>
       <c r="M177">
-        <v>72.06082531241945</v>
+        <v>67.65738795189128</v>
       </c>
       <c r="O177" t="s">
         <v>195</v>
@@ -7051,37 +7069,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.1135500743985176</v>
+        <v>0.1155728623270988</v>
       </c>
       <c r="C178">
-        <v>0.1142320856451988</v>
+        <v>0.1175957322120666</v>
       </c>
       <c r="D178">
-        <v>0.1131704598665237</v>
+        <v>0.1155728623270988</v>
       </c>
       <c r="E178">
-        <v>0.1134930625557899</v>
+        <v>0.117472656071186</v>
       </c>
       <c r="F178">
-        <v>11505696</v>
+        <v>23270688</v>
       </c>
       <c r="G178">
-        <v>0.1102695873940589</v>
+        <v>0.1137256893601711</v>
       </c>
       <c r="H178">
-        <v>0.1093846671283245</v>
+        <v>0.1132440917193889</v>
       </c>
       <c r="I178">
-        <v>0.1093591667711735</v>
+        <v>0.1131200248996416</v>
       </c>
       <c r="J178">
-        <v>0.1079859931017478</v>
+        <v>0.1099061147687645</v>
       </c>
       <c r="L178">
-        <v>79.0156166640303</v>
+        <v>82.56918118045877</v>
       </c>
       <c r="M178">
-        <v>71.54956325629233</v>
+        <v>74.90458034270212</v>
       </c>
       <c r="O178" t="s">
         <v>195</v>
@@ -7092,37 +7110,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.1134889796376228</v>
+        <v>0.1174766793847084</v>
       </c>
       <c r="C179">
-        <v>0.1150043532252311</v>
+        <v>0.1178843975067138</v>
       </c>
       <c r="D179">
-        <v>0.1134512647986412</v>
+        <v>0.1168754920363426</v>
       </c>
       <c r="E179">
-        <v>0.1147126480937004</v>
+        <v>0.1175881177186966</v>
       </c>
       <c r="F179">
-        <v>17304320</v>
+        <v>21796864</v>
       </c>
       <c r="G179">
-        <v>0.1106735020031172</v>
+        <v>0.1140768192109461</v>
       </c>
       <c r="H179">
-        <v>0.1096550129354</v>
+        <v>0.1134706851094961</v>
       </c>
       <c r="I179">
-        <v>0.1094912218550841</v>
+        <v>0.1132775564988454</v>
       </c>
       <c r="J179">
-        <v>0.1080750878698531</v>
+        <v>0.1100078631522073</v>
       </c>
       <c r="L179">
-        <v>83.06392280235981</v>
+        <v>82.93225327620678</v>
       </c>
       <c r="M179">
-        <v>75.28815764447701</v>
+        <v>75.26048747020084</v>
       </c>
       <c r="O179" t="s">
         <v>195</v>
@@ -7133,37 +7151,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.1147136688232421</v>
+        <v>0.1175863891839981</v>
       </c>
       <c r="C180">
-        <v>0.1149957105517387</v>
+        <v>0.1176574304699897</v>
       </c>
       <c r="D180">
-        <v>0.1145693883299827</v>
+        <v>0.1170889437198638</v>
       </c>
       <c r="E180">
-        <v>0.1149685606360435</v>
+        <v>0.1176574304699897</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>7643424</v>
       </c>
       <c r="G180">
-        <v>0.1110639618788378</v>
+        <v>0.1144023293254046</v>
       </c>
       <c r="H180">
-        <v>0.1099345650523901</v>
+        <v>0.1137301925569772</v>
       </c>
       <c r="I180">
-        <v>0.1096467547118663</v>
+        <v>0.1134555920958518</v>
       </c>
       <c r="J180">
-        <v>0.108166392144902</v>
+        <v>0.1101091819246283</v>
       </c>
       <c r="L180">
-        <v>83.80162392026915</v>
+        <v>83.16901555553723</v>
       </c>
       <c r="M180">
-        <v>76.00081360169423</v>
+        <v>75.48525300071128</v>
       </c>
       <c r="O180" t="s">
         <v>195</v>
@@ -7174,37 +7192,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.1149682104587555</v>
+        <v>0.1176623255014419</v>
       </c>
       <c r="C181">
-        <v>0.1151804625988006</v>
+        <v>0.1177170723676681</v>
       </c>
       <c r="D181">
-        <v>0.1146079376339912</v>
+        <v>0.1168068349361419</v>
       </c>
       <c r="E181">
-        <v>0.1147174164652824</v>
+        <v>0.1169990077614784</v>
       </c>
       <c r="F181">
-        <v>3556192</v>
+        <v>6207232</v>
       </c>
       <c r="G181">
-        <v>0.1113960941139691</v>
+        <v>0.1146383910014113</v>
       </c>
       <c r="H181">
-        <v>0.1103272195905447</v>
+        <v>0.1139736302196979</v>
       </c>
       <c r="I181">
-        <v>0.1098242476582527</v>
+        <v>0.1136160982151826</v>
       </c>
       <c r="J181">
-        <v>0.1082531606789468</v>
+        <v>0.1102004378959773</v>
       </c>
       <c r="L181">
-        <v>79.95654135166399</v>
+        <v>72.43140996693749</v>
       </c>
       <c r="M181">
-        <v>73.75294773771476</v>
+        <v>69.06607127743085</v>
       </c>
       <c r="O181" t="s">
         <v>195</v>
@@ -7215,37 +7233,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.1147174164652824</v>
+        <v>0.1169934347271919</v>
       </c>
       <c r="C182">
-        <v>0.1148468926548957</v>
+        <v>0.1170136779546737</v>
       </c>
       <c r="D182">
-        <v>0.114415094256401</v>
+        <v>0.1168481260538101</v>
       </c>
       <c r="E182">
-        <v>0.1145699396729469</v>
+        <v>0.1168481260538101</v>
       </c>
       <c r="F182">
-        <v>5253088</v>
+        <v>203424</v>
       </c>
       <c r="G182">
-        <v>0.1116846255284216</v>
+        <v>0.1148392760061748</v>
       </c>
       <c r="H182">
-        <v>0.1106971751898527</v>
+        <v>0.1141827180981636</v>
       </c>
       <c r="I182">
-        <v>0.1100136985381444</v>
+        <v>0.1137743386129538</v>
       </c>
       <c r="J182">
-        <v>0.1083368266258872</v>
+        <v>0.1102884867457499</v>
       </c>
       <c r="L182">
-        <v>77.60424614668599</v>
+        <v>70.0982871290249</v>
       </c>
       <c r="M182">
-        <v>72.39879163147815</v>
+        <v>67.64642906462103</v>
       </c>
       <c r="O182" t="s">
         <v>195</v>
